--- a/Unit testing.xlsx
+++ b/Unit testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Rekaya Perangkat Lunak\Unit testing\RPL-Unit-Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RPL-Unit-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56444440-9B3A-4E8C-944C-808CB7641774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0DA3F6-A222-4805-94B4-F20586FE5AD7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="70">
   <si>
     <t xml:space="preserve">Project Name: </t>
   </si>
@@ -1280,6 +1280,9 @@
   <si>
     <t>&lt;Jumlah Invalid (char)&gt;</t>
   </si>
+  <si>
+    <t>Verifikasi form update</t>
+  </si>
 </sst>
 </file>
 
@@ -1981,7 +1984,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1995,7 +1998,40 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2005,6 +2041,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="42" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2034,59 +2088,23 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2523,127 +2541,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K749"/>
+  <dimension ref="A1:K748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59:H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.28515625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="20.85546875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" style="21" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" style="21" customWidth="1"/>
-    <col min="9" max="9" width="16" style="21" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="22"/>
+    <col min="1" max="1" width="1.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.88671875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.5546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="16" style="8" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="9" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="27" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="27" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="9" spans="2:11" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+    </row>
+    <row r="9" spans="2:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -2675,7 +2693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>54</v>
@@ -2695,1681 +2713,1681 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="3"/>
+      <c r="H11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="4" t="s">
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6" t="s">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+    </row>
+    <row r="22" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="G22" s="7"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4" t="s">
+      <c r="D23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4" t="s">
+      <c r="G23" s="3"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="3" t="s">
+      <c r="G24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3" t="s">
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6" t="s">
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G27" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="3" t="s">
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
+      <c r="G28" s="7"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+    </row>
+    <row r="29" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+      <c r="C29" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="4" t="s">
+      <c r="D29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="3" t="s">
+      <c r="G30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" s="21"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G31" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="21"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+    </row>
+    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+    </row>
+    <row r="33" spans="2:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+    </row>
+    <row r="34" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+    </row>
+    <row r="35" spans="2:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="37"/>
+      <c r="C35" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+    </row>
+    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+    </row>
+    <row r="37" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+    </row>
+    <row r="40" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+    </row>
+    <row r="41" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="17"/>
+      <c r="C41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+    </row>
+    <row r="42" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+    </row>
+    <row r="43" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+    </row>
+    <row r="44" spans="2:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+    </row>
+    <row r="47" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+    </row>
+    <row r="49" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="3" t="s">
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="6" t="s">
+      <c r="G50" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+    </row>
+    <row r="51" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="30" t="s">
+      <c r="G51" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="3" t="s">
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
+      <c r="G52" s="13"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+    </row>
+    <row r="53" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="4" t="s">
+      <c r="D53" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="17"/>
+      <c r="F53" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-    </row>
-    <row r="33" spans="2:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="4" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+    </row>
+    <row r="54" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="3" t="s">
+      <c r="G54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+    </row>
+    <row r="55" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="3" t="s">
+      <c r="G55" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+    </row>
+    <row r="56" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="34"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="6" t="s">
+      <c r="G56" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+    </row>
+    <row r="57" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G57" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="34"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="3" t="s">
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+    </row>
+    <row r="58" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-    </row>
-    <row r="40" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-    </row>
-    <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-    </row>
-    <row r="42" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-    </row>
-    <row r="44" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-    </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-    </row>
-    <row r="49" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-    </row>
-    <row r="51" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6" t="s">
+      <c r="G58" s="7"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="19"/>
+    </row>
+    <row r="59" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="17"/>
+      <c r="C59" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="4" t="s">
+      <c r="D59" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G51" s="22"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="4" t="s">
+      <c r="G59" s="3"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="17"/>
+    </row>
+    <row r="60" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G52" s="20" t="s">
+      <c r="G60" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="3" t="s">
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G53" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="3" t="s">
+      <c r="G61" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="2:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G54" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6" t="s">
+      <c r="G62" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G55" s="30" t="s">
+      <c r="G63" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="2:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G57" s="19"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-    </row>
-    <row r="58" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-      <c r="C58" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" s="22"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="19"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="8"/>
-    </row>
-    <row r="65" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6" t="s">
+      <c r="G64" s="7"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
+      <c r="K64" s="19"/>
+    </row>
+    <row r="65" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="17"/>
+      <c r="C65" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="6"/>
-      <c r="F65" s="4" t="s">
+      <c r="D65" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G65" s="22"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-    </row>
-    <row r="66" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="4" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="I65" s="17"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+    </row>
+    <row r="66" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
       <c r="F67" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-    </row>
-    <row r="68" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
       <c r="F68" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G68" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-    </row>
-    <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="6" t="s">
+      <c r="G68" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G69" s="30" t="s">
+      <c r="G69" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
+      <c r="K70" s="19"/>
+    </row>
+    <row r="71" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="17"/>
+      <c r="C71" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+    </row>
+    <row r="72" spans="2:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+    </row>
+    <row r="73" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+    </row>
+    <row r="74" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G75" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-    </row>
-    <row r="71" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="3" t="s">
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+    </row>
+    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G71" s="19"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-    </row>
-    <row r="72" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="4" t="s">
+      <c r="G76" s="38"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+    </row>
+    <row r="77" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="17"/>
+      <c r="C77" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="22"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-    </row>
-    <row r="73" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="4" t="s">
+      <c r="G77" s="3"/>
+      <c r="H77" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="17"/>
+    </row>
+    <row r="78" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G73" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-    </row>
-    <row r="74" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="3" t="s">
+      <c r="G78" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+    </row>
+    <row r="79" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G74" s="20" t="s">
+      <c r="G79" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="19"/>
+    </row>
+    <row r="83" spans="2:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="37"/>
+      <c r="C83" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D83" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E83" s="37"/>
+      <c r="F83" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="37"/>
+    </row>
+    <row r="84" spans="2:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="37"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="37"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B85" s="37"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="3" t="s">
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="37"/>
+    </row>
+    <row r="86" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="37"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G75" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="6" t="s">
+      <c r="G86" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B87" s="37"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G76" s="30" t="s">
+      <c r="G87" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="8"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="3" t="s">
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="37"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B88" s="37"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G78" s="19"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-    </row>
-    <row r="79" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E79" s="6"/>
-      <c r="F79" s="4" t="s">
+      <c r="G88" s="7"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="37"/>
+    </row>
+    <row r="89" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B89" s="17"/>
+      <c r="C89" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" s="17"/>
+      <c r="F89" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G79" s="22"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-    </row>
-    <row r="80" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="4" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+    </row>
+    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G80" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-    </row>
-    <row r="81" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="3" t="s">
+      <c r="G90" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G81" s="20" t="s">
+      <c r="G91" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-    </row>
-    <row r="82" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="3" t="s">
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G82" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-    </row>
-    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="6" t="s">
+      <c r="G92" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+    </row>
+    <row r="93" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="G83" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-    </row>
-    <row r="84" spans="2:11" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-    </row>
-    <row r="85" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="3" t="s">
+      <c r="G93" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B94" s="18"/>
+      <c r="C94" s="19"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G85" s="19"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-    </row>
-    <row r="86" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E86" s="6"/>
-      <c r="F86" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-    </row>
-    <row r="87" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G87" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-    </row>
-    <row r="88" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G88" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-    </row>
-    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G89" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-    </row>
-    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G90" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-    </row>
-    <row r="92" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
-    </row>
-    <row r="93" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="6"/>
-      <c r="F93" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G93" s="22"/>
-      <c r="H93" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-    </row>
-    <row r="94" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G94" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-    </row>
-    <row r="95" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G95" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-    </row>
-    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G96" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-    </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G97" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-    </row>
-    <row r="99" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
-      <c r="J99" s="8"/>
-      <c r="K99" s="8"/>
-    </row>
-    <row r="100" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G100" s="22"/>
-      <c r="H100" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="101" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G101" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-    </row>
-    <row r="102" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G102" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-    </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G103" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-    </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G104" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="8"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-    </row>
-    <row r="106" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
-    </row>
-    <row r="107" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="6"/>
-      <c r="C107" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E107" s="6"/>
-      <c r="F107" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G107" s="22"/>
-      <c r="H107" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="6"/>
-    </row>
-    <row r="108" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G108" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-    </row>
-    <row r="109" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G109" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-    </row>
-    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G110" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-    </row>
-    <row r="111" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G111" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-    </row>
-    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-    </row>
-    <row r="113" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
-      <c r="F113" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="8"/>
-    </row>
-    <row r="114" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B114" s="6"/>
-      <c r="C114" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E114" s="6"/>
-      <c r="F114" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G114" s="22"/>
-      <c r="H114" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="6"/>
-    </row>
-    <row r="115" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G115" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-    </row>
-    <row r="116" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G116" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G117" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-    </row>
-    <row r="118" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G118" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="32"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-    </row>
-    <row r="120" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
-      <c r="K120" s="8"/>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G94" s="40"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+      <c r="E104" s="3"/>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="2:11" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+      <c r="I116" s="3"/>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
@@ -4381,7 +4399,7 @@
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
@@ -4393,7 +4411,7 @@
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -4405,7 +4423,7 @@
       <c r="J123" s="3"/>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -4417,7 +4435,7 @@
       <c r="J124" s="3"/>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -4429,7 +4447,7 @@
       <c r="J125" s="3"/>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -4441,7 +4459,7 @@
       <c r="J126" s="3"/>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4453,7 +4471,7 @@
       <c r="J127" s="3"/>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -4465,7 +4483,7 @@
       <c r="J128" s="3"/>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -4477,7 +4495,7 @@
       <c r="J129" s="3"/>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -4489,7 +4507,7 @@
       <c r="J130" s="3"/>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4501,7 +4519,7 @@
       <c r="J131" s="3"/>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4513,7 +4531,7 @@
       <c r="J132" s="3"/>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -4525,7 +4543,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -4537,7 +4555,7 @@
       <c r="J134" s="3"/>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -4549,7 +4567,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4561,7 +4579,7 @@
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4573,7 +4591,7 @@
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4585,7 +4603,7 @@
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -4597,7 +4615,7 @@
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
     </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
@@ -4609,7 +4627,7 @@
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
@@ -4621,7 +4639,7 @@
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
@@ -4633,7 +4651,7 @@
       <c r="J142" s="3"/>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
@@ -4645,7 +4663,7 @@
       <c r="J143" s="3"/>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
@@ -4657,7 +4675,7 @@
       <c r="J144" s="3"/>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
@@ -4669,7 +4687,7 @@
       <c r="J145" s="3"/>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
@@ -4681,7 +4699,7 @@
       <c r="J146" s="3"/>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -4693,7 +4711,7 @@
       <c r="J147" s="3"/>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
@@ -4705,7 +4723,7 @@
       <c r="J148" s="3"/>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -4717,7 +4735,7 @@
       <c r="J149" s="3"/>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -4729,7 +4747,7 @@
       <c r="J150" s="3"/>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -4741,7 +4759,7 @@
       <c r="J151" s="3"/>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -4753,7 +4771,7 @@
       <c r="J152" s="3"/>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
@@ -4765,7 +4783,7 @@
       <c r="J153" s="3"/>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
@@ -4777,7 +4795,7 @@
       <c r="J154" s="3"/>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -4789,7 +4807,7 @@
       <c r="J155" s="3"/>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
@@ -4801,7 +4819,7 @@
       <c r="J156" s="3"/>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -4813,7 +4831,7 @@
       <c r="J157" s="3"/>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
@@ -4825,7 +4843,7 @@
       <c r="J158" s="3"/>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
@@ -4837,7 +4855,7 @@
       <c r="J159" s="3"/>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
@@ -4849,7 +4867,7 @@
       <c r="J160" s="3"/>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
@@ -4861,7 +4879,7 @@
       <c r="J161" s="3"/>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
@@ -4873,7 +4891,7 @@
       <c r="J162" s="3"/>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
@@ -4885,7 +4903,7 @@
       <c r="J163" s="3"/>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
@@ -4897,7 +4915,7 @@
       <c r="J164" s="3"/>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -4909,7 +4927,7 @@
       <c r="J165" s="3"/>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
@@ -4921,7 +4939,7 @@
       <c r="J166" s="3"/>
       <c r="K166" s="3"/>
     </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
@@ -4933,7 +4951,7 @@
       <c r="J167" s="3"/>
       <c r="K167" s="3"/>
     </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -4945,7 +4963,7 @@
       <c r="J168" s="3"/>
       <c r="K168" s="3"/>
     </row>
-    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -4957,7 +4975,7 @@
       <c r="J169" s="3"/>
       <c r="K169" s="3"/>
     </row>
-    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -4969,7 +4987,7 @@
       <c r="J170" s="3"/>
       <c r="K170" s="3"/>
     </row>
-    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
@@ -4981,7 +4999,7 @@
       <c r="J171" s="3"/>
       <c r="K171" s="3"/>
     </row>
-    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -4993,7 +5011,7 @@
       <c r="J172" s="3"/>
       <c r="K172" s="3"/>
     </row>
-    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -5005,7 +5023,7 @@
       <c r="J173" s="3"/>
       <c r="K173" s="3"/>
     </row>
-    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -5017,7 +5035,7 @@
       <c r="J174" s="3"/>
       <c r="K174" s="3"/>
     </row>
-    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -5029,7 +5047,7 @@
       <c r="J175" s="3"/>
       <c r="K175" s="3"/>
     </row>
-    <row r="176" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -5041,7 +5059,7 @@
       <c r="J176" s="3"/>
       <c r="K176" s="3"/>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -5053,7 +5071,7 @@
       <c r="J177" s="3"/>
       <c r="K177" s="3"/>
     </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -5065,7 +5083,7 @@
       <c r="J178" s="3"/>
       <c r="K178" s="3"/>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
@@ -5077,7 +5095,7 @@
       <c r="J179" s="3"/>
       <c r="K179" s="3"/>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -5089,7 +5107,7 @@
       <c r="J180" s="3"/>
       <c r="K180" s="3"/>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -5101,7 +5119,7 @@
       <c r="J181" s="3"/>
       <c r="K181" s="3"/>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -5113,7 +5131,7 @@
       <c r="J182" s="3"/>
       <c r="K182" s="3"/>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -5125,7 +5143,7 @@
       <c r="J183" s="3"/>
       <c r="K183" s="3"/>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
@@ -5137,7 +5155,7 @@
       <c r="J184" s="3"/>
       <c r="K184" s="3"/>
     </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -5149,7 +5167,7 @@
       <c r="J185" s="3"/>
       <c r="K185" s="3"/>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -5161,7 +5179,7 @@
       <c r="J186" s="3"/>
       <c r="K186" s="3"/>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -5173,7 +5191,7 @@
       <c r="J187" s="3"/>
       <c r="K187" s="3"/>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -5185,7 +5203,7 @@
       <c r="J188" s="3"/>
       <c r="K188" s="3"/>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
@@ -5197,7 +5215,7 @@
       <c r="J189" s="3"/>
       <c r="K189" s="3"/>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -5209,7 +5227,7 @@
       <c r="J190" s="3"/>
       <c r="K190" s="3"/>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -5221,7 +5239,7 @@
       <c r="J191" s="3"/>
       <c r="K191" s="3"/>
     </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
@@ -5233,7 +5251,7 @@
       <c r="J192" s="3"/>
       <c r="K192" s="3"/>
     </row>
-    <row r="193" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
@@ -5245,7 +5263,7 @@
       <c r="J193" s="3"/>
       <c r="K193" s="3"/>
     </row>
-    <row r="194" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
@@ -5257,7 +5275,7 @@
       <c r="J194" s="3"/>
       <c r="K194" s="3"/>
     </row>
-    <row r="195" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
@@ -5269,7 +5287,7 @@
       <c r="J195" s="3"/>
       <c r="K195" s="3"/>
     </row>
-    <row r="196" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
@@ -5281,7 +5299,7 @@
       <c r="J196" s="3"/>
       <c r="K196" s="3"/>
     </row>
-    <row r="197" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
@@ -5293,7 +5311,7 @@
       <c r="J197" s="3"/>
       <c r="K197" s="3"/>
     </row>
-    <row r="198" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
@@ -5305,7 +5323,7 @@
       <c r="J198" s="3"/>
       <c r="K198" s="3"/>
     </row>
-    <row r="199" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -5317,7 +5335,7 @@
       <c r="J199" s="3"/>
       <c r="K199" s="3"/>
     </row>
-    <row r="200" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -5329,7 +5347,7 @@
       <c r="J200" s="3"/>
       <c r="K200" s="3"/>
     </row>
-    <row r="201" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
       <c r="D201" s="3"/>
@@ -5341,7 +5359,7 @@
       <c r="J201" s="3"/>
       <c r="K201" s="3"/>
     </row>
-    <row r="202" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -5353,7 +5371,7 @@
       <c r="J202" s="3"/>
       <c r="K202" s="3"/>
     </row>
-    <row r="203" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -5365,7 +5383,7 @@
       <c r="J203" s="3"/>
       <c r="K203" s="3"/>
     </row>
-    <row r="204" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -5377,7 +5395,7 @@
       <c r="J204" s="3"/>
       <c r="K204" s="3"/>
     </row>
-    <row r="205" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
@@ -5389,7 +5407,7 @@
       <c r="J205" s="3"/>
       <c r="K205" s="3"/>
     </row>
-    <row r="206" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3"/>
@@ -5401,7 +5419,7 @@
       <c r="J206" s="3"/>
       <c r="K206" s="3"/>
     </row>
-    <row r="207" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3"/>
@@ -5413,7 +5431,7 @@
       <c r="J207" s="3"/>
       <c r="K207" s="3"/>
     </row>
-    <row r="208" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
       <c r="D208" s="3"/>
@@ -5425,7 +5443,7 @@
       <c r="J208" s="3"/>
       <c r="K208" s="3"/>
     </row>
-    <row r="209" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3"/>
@@ -5437,7 +5455,7 @@
       <c r="J209" s="3"/>
       <c r="K209" s="3"/>
     </row>
-    <row r="210" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
       <c r="D210" s="3"/>
@@ -5449,7 +5467,7 @@
       <c r="J210" s="3"/>
       <c r="K210" s="3"/>
     </row>
-    <row r="211" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -5461,7 +5479,7 @@
       <c r="J211" s="3"/>
       <c r="K211" s="3"/>
     </row>
-    <row r="212" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3"/>
@@ -5473,7 +5491,7 @@
       <c r="J212" s="3"/>
       <c r="K212" s="3"/>
     </row>
-    <row r="213" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3"/>
@@ -5485,7 +5503,7 @@
       <c r="J213" s="3"/>
       <c r="K213" s="3"/>
     </row>
-    <row r="214" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3"/>
@@ -5497,7 +5515,7 @@
       <c r="J214" s="3"/>
       <c r="K214" s="3"/>
     </row>
-    <row r="215" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3"/>
@@ -5509,7 +5527,7 @@
       <c r="J215" s="3"/>
       <c r="K215" s="3"/>
     </row>
-    <row r="216" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -5521,7 +5539,7 @@
       <c r="J216" s="3"/>
       <c r="K216" s="3"/>
     </row>
-    <row r="217" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3"/>
@@ -5533,7 +5551,7 @@
       <c r="J217" s="3"/>
       <c r="K217" s="3"/>
     </row>
-    <row r="218" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3"/>
@@ -5545,7 +5563,7 @@
       <c r="J218" s="3"/>
       <c r="K218" s="3"/>
     </row>
-    <row r="219" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3"/>
@@ -5557,7 +5575,7 @@
       <c r="J219" s="3"/>
       <c r="K219" s="3"/>
     </row>
-    <row r="220" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
       <c r="D220" s="3"/>
@@ -5569,7 +5587,7 @@
       <c r="J220" s="3"/>
       <c r="K220" s="3"/>
     </row>
-    <row r="221" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3"/>
@@ -5581,7 +5599,7 @@
       <c r="J221" s="3"/>
       <c r="K221" s="3"/>
     </row>
-    <row r="222" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3"/>
@@ -5593,7 +5611,7 @@
       <c r="J222" s="3"/>
       <c r="K222" s="3"/>
     </row>
-    <row r="223" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -5605,7 +5623,7 @@
       <c r="J223" s="3"/>
       <c r="K223" s="3"/>
     </row>
-    <row r="224" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -5617,7 +5635,7 @@
       <c r="J224" s="3"/>
       <c r="K224" s="3"/>
     </row>
-    <row r="225" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -5629,7 +5647,7 @@
       <c r="J225" s="3"/>
       <c r="K225" s="3"/>
     </row>
-    <row r="226" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -5641,7 +5659,7 @@
       <c r="J226" s="3"/>
       <c r="K226" s="3"/>
     </row>
-    <row r="227" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -5653,7 +5671,7 @@
       <c r="J227" s="3"/>
       <c r="K227" s="3"/>
     </row>
-    <row r="228" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -5665,7 +5683,7 @@
       <c r="J228" s="3"/>
       <c r="K228" s="3"/>
     </row>
-    <row r="229" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -5677,7 +5695,7 @@
       <c r="J229" s="3"/>
       <c r="K229" s="3"/>
     </row>
-    <row r="230" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -5689,7 +5707,7 @@
       <c r="J230" s="3"/>
       <c r="K230" s="3"/>
     </row>
-    <row r="231" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -5701,7 +5719,7 @@
       <c r="J231" s="3"/>
       <c r="K231" s="3"/>
     </row>
-    <row r="232" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -5713,7 +5731,7 @@
       <c r="J232" s="3"/>
       <c r="K232" s="3"/>
     </row>
-    <row r="233" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -5725,7 +5743,7 @@
       <c r="J233" s="3"/>
       <c r="K233" s="3"/>
     </row>
-    <row r="234" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -5737,7 +5755,7 @@
       <c r="J234" s="3"/>
       <c r="K234" s="3"/>
     </row>
-    <row r="235" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -5749,7 +5767,7 @@
       <c r="J235" s="3"/>
       <c r="K235" s="3"/>
     </row>
-    <row r="236" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -5761,7 +5779,7 @@
       <c r="J236" s="3"/>
       <c r="K236" s="3"/>
     </row>
-    <row r="237" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -5773,7 +5791,7 @@
       <c r="J237" s="3"/>
       <c r="K237" s="3"/>
     </row>
-    <row r="238" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -5785,7 +5803,7 @@
       <c r="J238" s="3"/>
       <c r="K238" s="3"/>
     </row>
-    <row r="239" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -5797,7 +5815,7 @@
       <c r="J239" s="3"/>
       <c r="K239" s="3"/>
     </row>
-    <row r="240" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -5809,7 +5827,7 @@
       <c r="J240" s="3"/>
       <c r="K240" s="3"/>
     </row>
-    <row r="241" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -5821,7 +5839,7 @@
       <c r="J241" s="3"/>
       <c r="K241" s="3"/>
     </row>
-    <row r="242" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -5833,7 +5851,7 @@
       <c r="J242" s="3"/>
       <c r="K242" s="3"/>
     </row>
-    <row r="243" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3"/>
@@ -5845,7 +5863,7 @@
       <c r="J243" s="3"/>
       <c r="K243" s="3"/>
     </row>
-    <row r="244" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -5857,7 +5875,7 @@
       <c r="J244" s="3"/>
       <c r="K244" s="3"/>
     </row>
-    <row r="245" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -5869,7 +5887,7 @@
       <c r="J245" s="3"/>
       <c r="K245" s="3"/>
     </row>
-    <row r="246" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -5881,7 +5899,7 @@
       <c r="J246" s="3"/>
       <c r="K246" s="3"/>
     </row>
-    <row r="247" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3"/>
@@ -5893,7 +5911,7 @@
       <c r="J247" s="3"/>
       <c r="K247" s="3"/>
     </row>
-    <row r="248" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3"/>
@@ -5905,7 +5923,7 @@
       <c r="J248" s="3"/>
       <c r="K248" s="3"/>
     </row>
-    <row r="249" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
       <c r="D249" s="3"/>
@@ -5917,7 +5935,7 @@
       <c r="J249" s="3"/>
       <c r="K249" s="3"/>
     </row>
-    <row r="250" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3"/>
@@ -5929,7 +5947,7 @@
       <c r="J250" s="3"/>
       <c r="K250" s="3"/>
     </row>
-    <row r="251" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3"/>
@@ -5941,7 +5959,7 @@
       <c r="J251" s="3"/>
       <c r="K251" s="3"/>
     </row>
-    <row r="252" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -5953,7 +5971,7 @@
       <c r="J252" s="3"/>
       <c r="K252" s="3"/>
     </row>
-    <row r="253" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3"/>
@@ -5965,7 +5983,7 @@
       <c r="J253" s="3"/>
       <c r="K253" s="3"/>
     </row>
-    <row r="254" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
       <c r="D254" s="3"/>
@@ -5977,7 +5995,7 @@
       <c r="J254" s="3"/>
       <c r="K254" s="3"/>
     </row>
-    <row r="255" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3"/>
@@ -5989,7 +6007,7 @@
       <c r="J255" s="3"/>
       <c r="K255" s="3"/>
     </row>
-    <row r="256" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -6001,7 +6019,7 @@
       <c r="J256" s="3"/>
       <c r="K256" s="3"/>
     </row>
-    <row r="257" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -6013,7 +6031,7 @@
       <c r="J257" s="3"/>
       <c r="K257" s="3"/>
     </row>
-    <row r="258" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -6025,7 +6043,7 @@
       <c r="J258" s="3"/>
       <c r="K258" s="3"/>
     </row>
-    <row r="259" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
       <c r="D259" s="3"/>
@@ -6037,7 +6055,7 @@
       <c r="J259" s="3"/>
       <c r="K259" s="3"/>
     </row>
-    <row r="260" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -6049,7 +6067,7 @@
       <c r="J260" s="3"/>
       <c r="K260" s="3"/>
     </row>
-    <row r="261" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
       <c r="D261" s="3"/>
@@ -6061,7 +6079,7 @@
       <c r="J261" s="3"/>
       <c r="K261" s="3"/>
     </row>
-    <row r="262" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -6073,7 +6091,7 @@
       <c r="J262" s="3"/>
       <c r="K262" s="3"/>
     </row>
-    <row r="263" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -6085,7 +6103,7 @@
       <c r="J263" s="3"/>
       <c r="K263" s="3"/>
     </row>
-    <row r="264" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
@@ -6097,7 +6115,7 @@
       <c r="J264" s="3"/>
       <c r="K264" s="3"/>
     </row>
-    <row r="265" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
       <c r="D265" s="3"/>
@@ -6109,7 +6127,7 @@
       <c r="J265" s="3"/>
       <c r="K265" s="3"/>
     </row>
-    <row r="266" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -6121,7 +6139,7 @@
       <c r="J266" s="3"/>
       <c r="K266" s="3"/>
     </row>
-    <row r="267" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -6133,7 +6151,7 @@
       <c r="J267" s="3"/>
       <c r="K267" s="3"/>
     </row>
-    <row r="268" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -6145,7 +6163,7 @@
       <c r="J268" s="3"/>
       <c r="K268" s="3"/>
     </row>
-    <row r="269" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -6157,7 +6175,7 @@
       <c r="J269" s="3"/>
       <c r="K269" s="3"/>
     </row>
-    <row r="270" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -6169,7 +6187,7 @@
       <c r="J270" s="3"/>
       <c r="K270" s="3"/>
     </row>
-    <row r="271" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -6181,7 +6199,7 @@
       <c r="J271" s="3"/>
       <c r="K271" s="3"/>
     </row>
-    <row r="272" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -6193,7 +6211,7 @@
       <c r="J272" s="3"/>
       <c r="K272" s="3"/>
     </row>
-    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -6205,7 +6223,7 @@
       <c r="J273" s="3"/>
       <c r="K273" s="3"/>
     </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -6217,7 +6235,7 @@
       <c r="J274" s="3"/>
       <c r="K274" s="3"/>
     </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
       <c r="D275" s="3"/>
@@ -6229,7 +6247,7 @@
       <c r="J275" s="3"/>
       <c r="K275" s="3"/>
     </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
@@ -6241,7 +6259,7 @@
       <c r="J276" s="3"/>
       <c r="K276" s="3"/>
     </row>
-    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -6253,7 +6271,7 @@
       <c r="J277" s="3"/>
       <c r="K277" s="3"/>
     </row>
-    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -6265,7 +6283,7 @@
       <c r="J278" s="3"/>
       <c r="K278" s="3"/>
     </row>
-    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -6277,7 +6295,7 @@
       <c r="J279" s="3"/>
       <c r="K279" s="3"/>
     </row>
-    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -6289,7 +6307,7 @@
       <c r="J280" s="3"/>
       <c r="K280" s="3"/>
     </row>
-    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
       <c r="D281" s="3"/>
@@ -6301,7 +6319,7 @@
       <c r="J281" s="3"/>
       <c r="K281" s="3"/>
     </row>
-    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -6313,7 +6331,7 @@
       <c r="J282" s="3"/>
       <c r="K282" s="3"/>
     </row>
-    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
       <c r="D283" s="3"/>
@@ -6325,7 +6343,7 @@
       <c r="J283" s="3"/>
       <c r="K283" s="3"/>
     </row>
-    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
       <c r="D284" s="3"/>
@@ -6337,7 +6355,7 @@
       <c r="J284" s="3"/>
       <c r="K284" s="3"/>
     </row>
-    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
       <c r="D285" s="3"/>
@@ -6349,7 +6367,7 @@
       <c r="J285" s="3"/>
       <c r="K285" s="3"/>
     </row>
-    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
       <c r="D286" s="3"/>
@@ -6361,7 +6379,7 @@
       <c r="J286" s="3"/>
       <c r="K286" s="3"/>
     </row>
-    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
       <c r="D287" s="3"/>
@@ -6373,7 +6391,7 @@
       <c r="J287" s="3"/>
       <c r="K287" s="3"/>
     </row>
-    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
       <c r="D288" s="3"/>
@@ -6385,7 +6403,7 @@
       <c r="J288" s="3"/>
       <c r="K288" s="3"/>
     </row>
-    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
       <c r="D289" s="3"/>
@@ -6397,7 +6415,7 @@
       <c r="J289" s="3"/>
       <c r="K289" s="3"/>
     </row>
-    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
       <c r="D290" s="3"/>
@@ -6409,7 +6427,7 @@
       <c r="J290" s="3"/>
       <c r="K290" s="3"/>
     </row>
-    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
       <c r="D291" s="3"/>
@@ -6421,7 +6439,7 @@
       <c r="J291" s="3"/>
       <c r="K291" s="3"/>
     </row>
-    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
       <c r="D292" s="3"/>
@@ -6433,7 +6451,7 @@
       <c r="J292" s="3"/>
       <c r="K292" s="3"/>
     </row>
-    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
@@ -6445,7 +6463,7 @@
       <c r="J293" s="3"/>
       <c r="K293" s="3"/>
     </row>
-    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
@@ -6457,7 +6475,7 @@
       <c r="J294" s="3"/>
       <c r="K294" s="3"/>
     </row>
-    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
@@ -6469,7 +6487,7 @@
       <c r="J295" s="3"/>
       <c r="K295" s="3"/>
     </row>
-    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
       <c r="D296" s="3"/>
@@ -6481,7 +6499,7 @@
       <c r="J296" s="3"/>
       <c r="K296" s="3"/>
     </row>
-    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
       <c r="D297" s="3"/>
@@ -6493,7 +6511,7 @@
       <c r="J297" s="3"/>
       <c r="K297" s="3"/>
     </row>
-    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
       <c r="D298" s="3"/>
@@ -6505,7 +6523,7 @@
       <c r="J298" s="3"/>
       <c r="K298" s="3"/>
     </row>
-    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
@@ -6517,7 +6535,7 @@
       <c r="J299" s="3"/>
       <c r="K299" s="3"/>
     </row>
-    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
       <c r="D300" s="3"/>
@@ -6529,7 +6547,7 @@
       <c r="J300" s="3"/>
       <c r="K300" s="3"/>
     </row>
-    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
@@ -6541,7 +6559,7 @@
       <c r="J301" s="3"/>
       <c r="K301" s="3"/>
     </row>
-    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3"/>
@@ -6553,7 +6571,7 @@
       <c r="J302" s="3"/>
       <c r="K302" s="3"/>
     </row>
-    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
       <c r="D303" s="3"/>
@@ -6565,7 +6583,7 @@
       <c r="J303" s="3"/>
       <c r="K303" s="3"/>
     </row>
-    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
       <c r="D304" s="3"/>
@@ -6577,7 +6595,7 @@
       <c r="J304" s="3"/>
       <c r="K304" s="3"/>
     </row>
-    <row r="305" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
@@ -6589,7 +6607,7 @@
       <c r="J305" s="3"/>
       <c r="K305" s="3"/>
     </row>
-    <row r="306" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
       <c r="D306" s="3"/>
@@ -6601,7 +6619,7 @@
       <c r="J306" s="3"/>
       <c r="K306" s="3"/>
     </row>
-    <row r="307" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
@@ -6613,7 +6631,7 @@
       <c r="J307" s="3"/>
       <c r="K307" s="3"/>
     </row>
-    <row r="308" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
       <c r="D308" s="3"/>
@@ -6625,7 +6643,7 @@
       <c r="J308" s="3"/>
       <c r="K308" s="3"/>
     </row>
-    <row r="309" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
       <c r="D309" s="3"/>
@@ -6637,7 +6655,7 @@
       <c r="J309" s="3"/>
       <c r="K309" s="3"/>
     </row>
-    <row r="310" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -6649,7 +6667,7 @@
       <c r="J310" s="3"/>
       <c r="K310" s="3"/>
     </row>
-    <row r="311" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
@@ -6661,7 +6679,7 @@
       <c r="J311" s="3"/>
       <c r="K311" s="3"/>
     </row>
-    <row r="312" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
@@ -6673,7 +6691,7 @@
       <c r="J312" s="3"/>
       <c r="K312" s="3"/>
     </row>
-    <row r="313" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
@@ -6685,7 +6703,7 @@
       <c r="J313" s="3"/>
       <c r="K313" s="3"/>
     </row>
-    <row r="314" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
@@ -6697,7 +6715,7 @@
       <c r="J314" s="3"/>
       <c r="K314" s="3"/>
     </row>
-    <row r="315" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
       <c r="D315" s="3"/>
@@ -6709,7 +6727,7 @@
       <c r="J315" s="3"/>
       <c r="K315" s="3"/>
     </row>
-    <row r="316" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
       <c r="D316" s="3"/>
@@ -6721,7 +6739,7 @@
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
     </row>
-    <row r="317" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
       <c r="D317" s="3"/>
@@ -6733,7 +6751,7 @@
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
     </row>
-    <row r="318" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
@@ -6745,7 +6763,7 @@
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
     </row>
-    <row r="319" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -6757,7 +6775,7 @@
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
     </row>
-    <row r="320" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -6769,7 +6787,7 @@
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
     </row>
-    <row r="321" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
       <c r="D321" s="3"/>
@@ -6781,7 +6799,7 @@
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
     </row>
-    <row r="322" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -6793,7 +6811,7 @@
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
     </row>
-    <row r="323" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
       <c r="D323" s="3"/>
@@ -6805,7 +6823,7 @@
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
     </row>
-    <row r="324" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
@@ -6817,7 +6835,7 @@
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
     </row>
-    <row r="325" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
       <c r="D325" s="3"/>
@@ -6829,7 +6847,7 @@
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
     </row>
-    <row r="326" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="3"/>
@@ -6841,7 +6859,7 @@
       <c r="J326" s="3"/>
       <c r="K326" s="3"/>
     </row>
-    <row r="327" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
@@ -6853,7 +6871,7 @@
       <c r="J327" s="3"/>
       <c r="K327" s="3"/>
     </row>
-    <row r="328" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
@@ -6865,7 +6883,7 @@
       <c r="J328" s="3"/>
       <c r="K328" s="3"/>
     </row>
-    <row r="329" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
       <c r="D329" s="3"/>
@@ -6877,7 +6895,7 @@
       <c r="J329" s="3"/>
       <c r="K329" s="3"/>
     </row>
-    <row r="330" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -6889,7 +6907,7 @@
       <c r="J330" s="3"/>
       <c r="K330" s="3"/>
     </row>
-    <row r="331" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
       <c r="D331" s="3"/>
@@ -6901,7 +6919,7 @@
       <c r="J331" s="3"/>
       <c r="K331" s="3"/>
     </row>
-    <row r="332" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
       <c r="D332" s="3"/>
@@ -6913,7 +6931,7 @@
       <c r="J332" s="3"/>
       <c r="K332" s="3"/>
     </row>
-    <row r="333" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
@@ -6925,7 +6943,7 @@
       <c r="J333" s="3"/>
       <c r="K333" s="3"/>
     </row>
-    <row r="334" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
       <c r="D334" s="3"/>
@@ -6937,7 +6955,7 @@
       <c r="J334" s="3"/>
       <c r="K334" s="3"/>
     </row>
-    <row r="335" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
       <c r="D335" s="3"/>
@@ -6949,7 +6967,7 @@
       <c r="J335" s="3"/>
       <c r="K335" s="3"/>
     </row>
-    <row r="336" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
       <c r="D336" s="3"/>
@@ -6961,7 +6979,7 @@
       <c r="J336" s="3"/>
       <c r="K336" s="3"/>
     </row>
-    <row r="337" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -6973,7 +6991,7 @@
       <c r="J337" s="3"/>
       <c r="K337" s="3"/>
     </row>
-    <row r="338" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -6985,7 +7003,7 @@
       <c r="J338" s="3"/>
       <c r="K338" s="3"/>
     </row>
-    <row r="339" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -6997,7 +7015,7 @@
       <c r="J339" s="3"/>
       <c r="K339" s="3"/>
     </row>
-    <row r="340" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -7009,7 +7027,7 @@
       <c r="J340" s="3"/>
       <c r="K340" s="3"/>
     </row>
-    <row r="341" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -7021,7 +7039,7 @@
       <c r="J341" s="3"/>
       <c r="K341" s="3"/>
     </row>
-    <row r="342" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -7033,7 +7051,7 @@
       <c r="J342" s="3"/>
       <c r="K342" s="3"/>
     </row>
-    <row r="343" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -7045,7 +7063,7 @@
       <c r="J343" s="3"/>
       <c r="K343" s="3"/>
     </row>
-    <row r="344" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -7057,7 +7075,7 @@
       <c r="J344" s="3"/>
       <c r="K344" s="3"/>
     </row>
-    <row r="345" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -7069,7 +7087,7 @@
       <c r="J345" s="3"/>
       <c r="K345" s="3"/>
     </row>
-    <row r="346" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -7081,7 +7099,7 @@
       <c r="J346" s="3"/>
       <c r="K346" s="3"/>
     </row>
-    <row r="347" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
       <c r="D347" s="3"/>
@@ -7093,7 +7111,7 @@
       <c r="J347" s="3"/>
       <c r="K347" s="3"/>
     </row>
-    <row r="348" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
       <c r="D348" s="3"/>
@@ -7105,7 +7123,7 @@
       <c r="J348" s="3"/>
       <c r="K348" s="3"/>
     </row>
-    <row r="349" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -7117,7 +7135,7 @@
       <c r="J349" s="3"/>
       <c r="K349" s="3"/>
     </row>
-    <row r="350" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -7129,7 +7147,7 @@
       <c r="J350" s="3"/>
       <c r="K350" s="3"/>
     </row>
-    <row r="351" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -7141,7 +7159,7 @@
       <c r="J351" s="3"/>
       <c r="K351" s="3"/>
     </row>
-    <row r="352" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -7153,7 +7171,7 @@
       <c r="J352" s="3"/>
       <c r="K352" s="3"/>
     </row>
-    <row r="353" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -7165,7 +7183,7 @@
       <c r="J353" s="3"/>
       <c r="K353" s="3"/>
     </row>
-    <row r="354" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -7177,7 +7195,7 @@
       <c r="J354" s="3"/>
       <c r="K354" s="3"/>
     </row>
-    <row r="355" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -7189,7 +7207,7 @@
       <c r="J355" s="3"/>
       <c r="K355" s="3"/>
     </row>
-    <row r="356" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="3"/>
@@ -7201,7 +7219,7 @@
       <c r="J356" s="3"/>
       <c r="K356" s="3"/>
     </row>
-    <row r="357" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -7213,7 +7231,7 @@
       <c r="J357" s="3"/>
       <c r="K357" s="3"/>
     </row>
-    <row r="358" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
       <c r="D358" s="3"/>
@@ -7225,7 +7243,7 @@
       <c r="J358" s="3"/>
       <c r="K358" s="3"/>
     </row>
-    <row r="359" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
       <c r="D359" s="3"/>
@@ -7237,7 +7255,7 @@
       <c r="J359" s="3"/>
       <c r="K359" s="3"/>
     </row>
-    <row r="360" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
       <c r="D360" s="3"/>
@@ -7249,7 +7267,7 @@
       <c r="J360" s="3"/>
       <c r="K360" s="3"/>
     </row>
-    <row r="361" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
@@ -7261,7 +7279,7 @@
       <c r="J361" s="3"/>
       <c r="K361" s="3"/>
     </row>
-    <row r="362" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -7273,7 +7291,7 @@
       <c r="J362" s="3"/>
       <c r="K362" s="3"/>
     </row>
-    <row r="363" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
@@ -7285,7 +7303,7 @@
       <c r="J363" s="3"/>
       <c r="K363" s="3"/>
     </row>
-    <row r="364" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="3"/>
@@ -7297,7 +7315,7 @@
       <c r="J364" s="3"/>
       <c r="K364" s="3"/>
     </row>
-    <row r="365" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
       <c r="D365" s="3"/>
@@ -7309,7 +7327,7 @@
       <c r="J365" s="3"/>
       <c r="K365" s="3"/>
     </row>
-    <row r="366" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
       <c r="D366" s="3"/>
@@ -7321,7 +7339,7 @@
       <c r="J366" s="3"/>
       <c r="K366" s="3"/>
     </row>
-    <row r="367" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
       <c r="D367" s="3"/>
@@ -7333,7 +7351,7 @@
       <c r="J367" s="3"/>
       <c r="K367" s="3"/>
     </row>
-    <row r="368" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
       <c r="D368" s="3"/>
@@ -7345,7 +7363,7 @@
       <c r="J368" s="3"/>
       <c r="K368" s="3"/>
     </row>
-    <row r="369" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
@@ -7357,7 +7375,7 @@
       <c r="J369" s="3"/>
       <c r="K369" s="3"/>
     </row>
-    <row r="370" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
       <c r="D370" s="3"/>
@@ -7369,7 +7387,7 @@
       <c r="J370" s="3"/>
       <c r="K370" s="3"/>
     </row>
-    <row r="371" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
       <c r="D371" s="3"/>
@@ -7381,7 +7399,7 @@
       <c r="J371" s="3"/>
       <c r="K371" s="3"/>
     </row>
-    <row r="372" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
       <c r="D372" s="3"/>
@@ -7393,7 +7411,7 @@
       <c r="J372" s="3"/>
       <c r="K372" s="3"/>
     </row>
-    <row r="373" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
       <c r="D373" s="3"/>
@@ -7405,7 +7423,7 @@
       <c r="J373" s="3"/>
       <c r="K373" s="3"/>
     </row>
-    <row r="374" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
@@ -7417,7 +7435,7 @@
       <c r="J374" s="3"/>
       <c r="K374" s="3"/>
     </row>
-    <row r="375" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
       <c r="D375" s="3"/>
@@ -7429,7 +7447,7 @@
       <c r="J375" s="3"/>
       <c r="K375" s="3"/>
     </row>
-    <row r="376" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
       <c r="D376" s="3"/>
@@ -7441,7 +7459,7 @@
       <c r="J376" s="3"/>
       <c r="K376" s="3"/>
     </row>
-    <row r="377" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
       <c r="D377" s="3"/>
@@ -7453,7 +7471,7 @@
       <c r="J377" s="3"/>
       <c r="K377" s="3"/>
     </row>
-    <row r="378" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
       <c r="D378" s="3"/>
@@ -7465,7 +7483,7 @@
       <c r="J378" s="3"/>
       <c r="K378" s="3"/>
     </row>
-    <row r="379" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
       <c r="D379" s="3"/>
@@ -7477,7 +7495,7 @@
       <c r="J379" s="3"/>
       <c r="K379" s="3"/>
     </row>
-    <row r="380" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
       <c r="D380" s="3"/>
@@ -7489,7 +7507,7 @@
       <c r="J380" s="3"/>
       <c r="K380" s="3"/>
     </row>
-    <row r="381" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
       <c r="D381" s="3"/>
@@ -7501,7 +7519,7 @@
       <c r="J381" s="3"/>
       <c r="K381" s="3"/>
     </row>
-    <row r="382" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
       <c r="D382" s="3"/>
@@ -7513,7 +7531,7 @@
       <c r="J382" s="3"/>
       <c r="K382" s="3"/>
     </row>
-    <row r="383" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
       <c r="D383" s="3"/>
@@ -7525,7 +7543,7 @@
       <c r="J383" s="3"/>
       <c r="K383" s="3"/>
     </row>
-    <row r="384" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
       <c r="D384" s="3"/>
@@ -7537,7 +7555,7 @@
       <c r="J384" s="3"/>
       <c r="K384" s="3"/>
     </row>
-    <row r="385" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
       <c r="D385" s="3"/>
@@ -7549,7 +7567,7 @@
       <c r="J385" s="3"/>
       <c r="K385" s="3"/>
     </row>
-    <row r="386" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
       <c r="D386" s="3"/>
@@ -7561,7 +7579,7 @@
       <c r="J386" s="3"/>
       <c r="K386" s="3"/>
     </row>
-    <row r="387" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
       <c r="D387" s="3"/>
@@ -7573,7 +7591,7 @@
       <c r="J387" s="3"/>
       <c r="K387" s="3"/>
     </row>
-    <row r="388" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
       <c r="D388" s="3"/>
@@ -7585,7 +7603,7 @@
       <c r="J388" s="3"/>
       <c r="K388" s="3"/>
     </row>
-    <row r="389" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
       <c r="D389" s="3"/>
@@ -7597,7 +7615,7 @@
       <c r="J389" s="3"/>
       <c r="K389" s="3"/>
     </row>
-    <row r="390" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
       <c r="D390" s="3"/>
@@ -7609,7 +7627,7 @@
       <c r="J390" s="3"/>
       <c r="K390" s="3"/>
     </row>
-    <row r="391" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
       <c r="D391" s="3"/>
@@ -7621,7 +7639,7 @@
       <c r="J391" s="3"/>
       <c r="K391" s="3"/>
     </row>
-    <row r="392" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
       <c r="D392" s="3"/>
@@ -7633,7 +7651,7 @@
       <c r="J392" s="3"/>
       <c r="K392" s="3"/>
     </row>
-    <row r="393" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
       <c r="D393" s="3"/>
@@ -7645,7 +7663,7 @@
       <c r="J393" s="3"/>
       <c r="K393" s="3"/>
     </row>
-    <row r="394" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
       <c r="D394" s="3"/>
@@ -7657,7 +7675,7 @@
       <c r="J394" s="3"/>
       <c r="K394" s="3"/>
     </row>
-    <row r="395" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
       <c r="D395" s="3"/>
@@ -7669,7 +7687,7 @@
       <c r="J395" s="3"/>
       <c r="K395" s="3"/>
     </row>
-    <row r="396" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
       <c r="D396" s="3"/>
@@ -7681,7 +7699,7 @@
       <c r="J396" s="3"/>
       <c r="K396" s="3"/>
     </row>
-    <row r="397" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -7693,7 +7711,7 @@
       <c r="J397" s="3"/>
       <c r="K397" s="3"/>
     </row>
-    <row r="398" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
       <c r="D398" s="3"/>
@@ -7705,7 +7723,7 @@
       <c r="J398" s="3"/>
       <c r="K398" s="3"/>
     </row>
-    <row r="399" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
       <c r="D399" s="3"/>
@@ -7717,7 +7735,7 @@
       <c r="J399" s="3"/>
       <c r="K399" s="3"/>
     </row>
-    <row r="400" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
       <c r="D400" s="3"/>
@@ -7729,7 +7747,7 @@
       <c r="J400" s="3"/>
       <c r="K400" s="3"/>
     </row>
-    <row r="401" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
       <c r="D401" s="3"/>
@@ -7741,7 +7759,7 @@
       <c r="J401" s="3"/>
       <c r="K401" s="3"/>
     </row>
-    <row r="402" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
       <c r="D402" s="3"/>
@@ -7753,7 +7771,7 @@
       <c r="J402" s="3"/>
       <c r="K402" s="3"/>
     </row>
-    <row r="403" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
       <c r="D403" s="3"/>
@@ -7765,7 +7783,7 @@
       <c r="J403" s="3"/>
       <c r="K403" s="3"/>
     </row>
-    <row r="404" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
       <c r="D404" s="3"/>
@@ -7777,7 +7795,7 @@
       <c r="J404" s="3"/>
       <c r="K404" s="3"/>
     </row>
-    <row r="405" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -7789,7 +7807,7 @@
       <c r="J405" s="3"/>
       <c r="K405" s="3"/>
     </row>
-    <row r="406" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
       <c r="D406" s="3"/>
@@ -7801,7 +7819,7 @@
       <c r="J406" s="3"/>
       <c r="K406" s="3"/>
     </row>
-    <row r="407" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
       <c r="D407" s="3"/>
@@ -7813,7 +7831,7 @@
       <c r="J407" s="3"/>
       <c r="K407" s="3"/>
     </row>
-    <row r="408" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -7825,7 +7843,7 @@
       <c r="J408" s="3"/>
       <c r="K408" s="3"/>
     </row>
-    <row r="409" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
@@ -7837,7 +7855,7 @@
       <c r="J409" s="3"/>
       <c r="K409" s="3"/>
     </row>
-    <row r="410" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
       <c r="D410" s="3"/>
@@ -7849,7 +7867,7 @@
       <c r="J410" s="3"/>
       <c r="K410" s="3"/>
     </row>
-    <row r="411" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
       <c r="D411" s="3"/>
@@ -7861,7 +7879,7 @@
       <c r="J411" s="3"/>
       <c r="K411" s="3"/>
     </row>
-    <row r="412" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
       <c r="D412" s="3"/>
@@ -7873,7 +7891,7 @@
       <c r="J412" s="3"/>
       <c r="K412" s="3"/>
     </row>
-    <row r="413" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
@@ -7885,7 +7903,7 @@
       <c r="J413" s="3"/>
       <c r="K413" s="3"/>
     </row>
-    <row r="414" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
       <c r="D414" s="3"/>
@@ -7897,7 +7915,7 @@
       <c r="J414" s="3"/>
       <c r="K414" s="3"/>
     </row>
-    <row r="415" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
       <c r="D415" s="3"/>
@@ -7909,7 +7927,7 @@
       <c r="J415" s="3"/>
       <c r="K415" s="3"/>
     </row>
-    <row r="416" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
       <c r="D416" s="3"/>
@@ -7921,7 +7939,7 @@
       <c r="J416" s="3"/>
       <c r="K416" s="3"/>
     </row>
-    <row r="417" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
@@ -7933,7 +7951,7 @@
       <c r="J417" s="3"/>
       <c r="K417" s="3"/>
     </row>
-    <row r="418" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
       <c r="D418" s="3"/>
@@ -7945,7 +7963,7 @@
       <c r="J418" s="3"/>
       <c r="K418" s="3"/>
     </row>
-    <row r="419" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
       <c r="D419" s="3"/>
@@ -7957,7 +7975,7 @@
       <c r="J419" s="3"/>
       <c r="K419" s="3"/>
     </row>
-    <row r="420" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
@@ -7969,7 +7987,7 @@
       <c r="J420" s="3"/>
       <c r="K420" s="3"/>
     </row>
-    <row r="421" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
       <c r="D421" s="3"/>
@@ -7981,7 +7999,7 @@
       <c r="J421" s="3"/>
       <c r="K421" s="3"/>
     </row>
-    <row r="422" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
       <c r="D422" s="3"/>
@@ -7993,7 +8011,7 @@
       <c r="J422" s="3"/>
       <c r="K422" s="3"/>
     </row>
-    <row r="423" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
@@ -8005,7 +8023,7 @@
       <c r="J423" s="3"/>
       <c r="K423" s="3"/>
     </row>
-    <row r="424" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
       <c r="D424" s="3"/>
@@ -8017,7 +8035,7 @@
       <c r="J424" s="3"/>
       <c r="K424" s="3"/>
     </row>
-    <row r="425" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
@@ -8029,7 +8047,7 @@
       <c r="J425" s="3"/>
       <c r="K425" s="3"/>
     </row>
-    <row r="426" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
       <c r="D426" s="3"/>
@@ -8041,7 +8059,7 @@
       <c r="J426" s="3"/>
       <c r="K426" s="3"/>
     </row>
-    <row r="427" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
       <c r="D427" s="3"/>
@@ -8053,7 +8071,7 @@
       <c r="J427" s="3"/>
       <c r="K427" s="3"/>
     </row>
-    <row r="428" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
@@ -8065,7 +8083,7 @@
       <c r="J428" s="3"/>
       <c r="K428" s="3"/>
     </row>
-    <row r="429" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
       <c r="D429" s="3"/>
@@ -8077,7 +8095,7 @@
       <c r="J429" s="3"/>
       <c r="K429" s="3"/>
     </row>
-    <row r="430" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
       <c r="D430" s="3"/>
@@ -8089,7 +8107,7 @@
       <c r="J430" s="3"/>
       <c r="K430" s="3"/>
     </row>
-    <row r="431" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
@@ -8101,7 +8119,7 @@
       <c r="J431" s="3"/>
       <c r="K431" s="3"/>
     </row>
-    <row r="432" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
       <c r="D432" s="3"/>
@@ -8113,7 +8131,7 @@
       <c r="J432" s="3"/>
       <c r="K432" s="3"/>
     </row>
-    <row r="433" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
       <c r="D433" s="3"/>
@@ -8125,7 +8143,7 @@
       <c r="J433" s="3"/>
       <c r="K433" s="3"/>
     </row>
-    <row r="434" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
       <c r="D434" s="3"/>
@@ -8137,7 +8155,7 @@
       <c r="J434" s="3"/>
       <c r="K434" s="3"/>
     </row>
-    <row r="435" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
@@ -8149,7 +8167,7 @@
       <c r="J435" s="3"/>
       <c r="K435" s="3"/>
     </row>
-    <row r="436" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
       <c r="D436" s="3"/>
@@ -8161,7 +8179,7 @@
       <c r="J436" s="3"/>
       <c r="K436" s="3"/>
     </row>
-    <row r="437" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
       <c r="D437" s="3"/>
@@ -8173,7 +8191,7 @@
       <c r="J437" s="3"/>
       <c r="K437" s="3"/>
     </row>
-    <row r="438" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
@@ -8185,7 +8203,7 @@
       <c r="J438" s="3"/>
       <c r="K438" s="3"/>
     </row>
-    <row r="439" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
       <c r="D439" s="3"/>
@@ -8197,7 +8215,7 @@
       <c r="J439" s="3"/>
       <c r="K439" s="3"/>
     </row>
-    <row r="440" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
@@ -8209,7 +8227,7 @@
       <c r="J440" s="3"/>
       <c r="K440" s="3"/>
     </row>
-    <row r="441" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
       <c r="D441" s="3"/>
@@ -8221,7 +8239,7 @@
       <c r="J441" s="3"/>
       <c r="K441" s="3"/>
     </row>
-    <row r="442" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
       <c r="D442" s="3"/>
@@ -8233,7 +8251,7 @@
       <c r="J442" s="3"/>
       <c r="K442" s="3"/>
     </row>
-    <row r="443" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
@@ -8245,7 +8263,7 @@
       <c r="J443" s="3"/>
       <c r="K443" s="3"/>
     </row>
-    <row r="444" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="3"/>
@@ -8257,7 +8275,7 @@
       <c r="J444" s="3"/>
       <c r="K444" s="3"/>
     </row>
-    <row r="445" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
       <c r="D445" s="3"/>
@@ -8269,7 +8287,7 @@
       <c r="J445" s="3"/>
       <c r="K445" s="3"/>
     </row>
-    <row r="446" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="3"/>
@@ -8281,7 +8299,7 @@
       <c r="J446" s="3"/>
       <c r="K446" s="3"/>
     </row>
-    <row r="447" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
       <c r="D447" s="3"/>
@@ -8293,7 +8311,7 @@
       <c r="J447" s="3"/>
       <c r="K447" s="3"/>
     </row>
-    <row r="448" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
       <c r="D448" s="3"/>
@@ -8305,7 +8323,7 @@
       <c r="J448" s="3"/>
       <c r="K448" s="3"/>
     </row>
-    <row r="449" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
       <c r="D449" s="3"/>
@@ -8317,7 +8335,7 @@
       <c r="J449" s="3"/>
       <c r="K449" s="3"/>
     </row>
-    <row r="450" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
@@ -8329,7 +8347,7 @@
       <c r="J450" s="3"/>
       <c r="K450" s="3"/>
     </row>
-    <row r="451" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
       <c r="D451" s="3"/>
@@ -8341,7 +8359,7 @@
       <c r="J451" s="3"/>
       <c r="K451" s="3"/>
     </row>
-    <row r="452" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -8353,7 +8371,7 @@
       <c r="J452" s="3"/>
       <c r="K452" s="3"/>
     </row>
-    <row r="453" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="3"/>
@@ -8365,7 +8383,7 @@
       <c r="J453" s="3"/>
       <c r="K453" s="3"/>
     </row>
-    <row r="454" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
       <c r="D454" s="3"/>
@@ -8377,7 +8395,7 @@
       <c r="J454" s="3"/>
       <c r="K454" s="3"/>
     </row>
-    <row r="455" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
       <c r="D455" s="3"/>
@@ -8389,7 +8407,7 @@
       <c r="J455" s="3"/>
       <c r="K455" s="3"/>
     </row>
-    <row r="456" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
       <c r="D456" s="3"/>
@@ -8401,7 +8419,7 @@
       <c r="J456" s="3"/>
       <c r="K456" s="3"/>
     </row>
-    <row r="457" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
       <c r="D457" s="3"/>
@@ -8413,7 +8431,7 @@
       <c r="J457" s="3"/>
       <c r="K457" s="3"/>
     </row>
-    <row r="458" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
       <c r="D458" s="3"/>
@@ -8425,7 +8443,7 @@
       <c r="J458" s="3"/>
       <c r="K458" s="3"/>
     </row>
-    <row r="459" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
       <c r="D459" s="3"/>
@@ -8437,7 +8455,7 @@
       <c r="J459" s="3"/>
       <c r="K459" s="3"/>
     </row>
-    <row r="460" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
       <c r="D460" s="3"/>
@@ -8449,7 +8467,7 @@
       <c r="J460" s="3"/>
       <c r="K460" s="3"/>
     </row>
-    <row r="461" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
       <c r="D461" s="3"/>
@@ -8461,7 +8479,7 @@
       <c r="J461" s="3"/>
       <c r="K461" s="3"/>
     </row>
-    <row r="462" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
       <c r="D462" s="3"/>
@@ -8473,7 +8491,7 @@
       <c r="J462" s="3"/>
       <c r="K462" s="3"/>
     </row>
-    <row r="463" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
       <c r="D463" s="3"/>
@@ -8485,7 +8503,7 @@
       <c r="J463" s="3"/>
       <c r="K463" s="3"/>
     </row>
-    <row r="464" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
@@ -8497,7 +8515,7 @@
       <c r="J464" s="3"/>
       <c r="K464" s="3"/>
     </row>
-    <row r="465" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
       <c r="D465" s="3"/>
@@ -8509,7 +8527,7 @@
       <c r="J465" s="3"/>
       <c r="K465" s="3"/>
     </row>
-    <row r="466" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
       <c r="D466" s="3"/>
@@ -8521,7 +8539,7 @@
       <c r="J466" s="3"/>
       <c r="K466" s="3"/>
     </row>
-    <row r="467" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
       <c r="D467" s="3"/>
@@ -8533,7 +8551,7 @@
       <c r="J467" s="3"/>
       <c r="K467" s="3"/>
     </row>
-    <row r="468" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
       <c r="D468" s="3"/>
@@ -8545,7 +8563,7 @@
       <c r="J468" s="3"/>
       <c r="K468" s="3"/>
     </row>
-    <row r="469" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
       <c r="D469" s="3"/>
@@ -8557,7 +8575,7 @@
       <c r="J469" s="3"/>
       <c r="K469" s="3"/>
     </row>
-    <row r="470" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
       <c r="D470" s="3"/>
@@ -8569,7 +8587,7 @@
       <c r="J470" s="3"/>
       <c r="K470" s="3"/>
     </row>
-    <row r="471" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
       <c r="D471" s="3"/>
@@ -8581,7 +8599,7 @@
       <c r="J471" s="3"/>
       <c r="K471" s="3"/>
     </row>
-    <row r="472" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
       <c r="D472" s="3"/>
@@ -8593,7 +8611,7 @@
       <c r="J472" s="3"/>
       <c r="K472" s="3"/>
     </row>
-    <row r="473" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
       <c r="D473" s="3"/>
@@ -8605,7 +8623,7 @@
       <c r="J473" s="3"/>
       <c r="K473" s="3"/>
     </row>
-    <row r="474" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
       <c r="D474" s="3"/>
@@ -8617,7 +8635,7 @@
       <c r="J474" s="3"/>
       <c r="K474" s="3"/>
     </row>
-    <row r="475" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
       <c r="D475" s="3"/>
@@ -8629,7 +8647,7 @@
       <c r="J475" s="3"/>
       <c r="K475" s="3"/>
     </row>
-    <row r="476" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
       <c r="D476" s="3"/>
@@ -8641,7 +8659,7 @@
       <c r="J476" s="3"/>
       <c r="K476" s="3"/>
     </row>
-    <row r="477" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
       <c r="D477" s="3"/>
@@ -8653,7 +8671,7 @@
       <c r="J477" s="3"/>
       <c r="K477" s="3"/>
     </row>
-    <row r="478" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
       <c r="D478" s="3"/>
@@ -8665,7 +8683,7 @@
       <c r="J478" s="3"/>
       <c r="K478" s="3"/>
     </row>
-    <row r="479" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
       <c r="D479" s="3"/>
@@ -8677,7 +8695,7 @@
       <c r="J479" s="3"/>
       <c r="K479" s="3"/>
     </row>
-    <row r="480" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
       <c r="D480" s="3"/>
@@ -8689,7 +8707,7 @@
       <c r="J480" s="3"/>
       <c r="K480" s="3"/>
     </row>
-    <row r="481" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
       <c r="D481" s="3"/>
@@ -8701,7 +8719,7 @@
       <c r="J481" s="3"/>
       <c r="K481" s="3"/>
     </row>
-    <row r="482" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
       <c r="D482" s="3"/>
@@ -8713,7 +8731,7 @@
       <c r="J482" s="3"/>
       <c r="K482" s="3"/>
     </row>
-    <row r="483" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
       <c r="D483" s="3"/>
@@ -8725,7 +8743,7 @@
       <c r="J483" s="3"/>
       <c r="K483" s="3"/>
     </row>
-    <row r="484" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
       <c r="D484" s="3"/>
@@ -8737,7 +8755,7 @@
       <c r="J484" s="3"/>
       <c r="K484" s="3"/>
     </row>
-    <row r="485" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
       <c r="D485" s="3"/>
@@ -8749,7 +8767,7 @@
       <c r="J485" s="3"/>
       <c r="K485" s="3"/>
     </row>
-    <row r="486" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
       <c r="D486" s="3"/>
@@ -8761,7 +8779,7 @@
       <c r="J486" s="3"/>
       <c r="K486" s="3"/>
     </row>
-    <row r="487" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
       <c r="D487" s="3"/>
@@ -8773,7 +8791,7 @@
       <c r="J487" s="3"/>
       <c r="K487" s="3"/>
     </row>
-    <row r="488" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
       <c r="D488" s="3"/>
@@ -8785,7 +8803,7 @@
       <c r="J488" s="3"/>
       <c r="K488" s="3"/>
     </row>
-    <row r="489" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
       <c r="D489" s="3"/>
@@ -8797,7 +8815,7 @@
       <c r="J489" s="3"/>
       <c r="K489" s="3"/>
     </row>
-    <row r="490" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
       <c r="D490" s="3"/>
@@ -8809,7 +8827,7 @@
       <c r="J490" s="3"/>
       <c r="K490" s="3"/>
     </row>
-    <row r="491" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
       <c r="D491" s="3"/>
@@ -8821,7 +8839,7 @@
       <c r="J491" s="3"/>
       <c r="K491" s="3"/>
     </row>
-    <row r="492" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
       <c r="D492" s="3"/>
@@ -8833,7 +8851,7 @@
       <c r="J492" s="3"/>
       <c r="K492" s="3"/>
     </row>
-    <row r="493" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
       <c r="D493" s="3"/>
@@ -8845,7 +8863,7 @@
       <c r="J493" s="3"/>
       <c r="K493" s="3"/>
     </row>
-    <row r="494" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
       <c r="D494" s="3"/>
@@ -8857,7 +8875,7 @@
       <c r="J494" s="3"/>
       <c r="K494" s="3"/>
     </row>
-    <row r="495" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
       <c r="D495" s="3"/>
@@ -8869,7 +8887,7 @@
       <c r="J495" s="3"/>
       <c r="K495" s="3"/>
     </row>
-    <row r="496" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
       <c r="D496" s="3"/>
@@ -8881,7 +8899,7 @@
       <c r="J496" s="3"/>
       <c r="K496" s="3"/>
     </row>
-    <row r="497" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
       <c r="D497" s="3"/>
@@ -8893,7 +8911,7 @@
       <c r="J497" s="3"/>
       <c r="K497" s="3"/>
     </row>
-    <row r="498" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
       <c r="D498" s="3"/>
@@ -8905,7 +8923,7 @@
       <c r="J498" s="3"/>
       <c r="K498" s="3"/>
     </row>
-    <row r="499" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
       <c r="D499" s="3"/>
@@ -8917,7 +8935,7 @@
       <c r="J499" s="3"/>
       <c r="K499" s="3"/>
     </row>
-    <row r="500" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
       <c r="D500" s="3"/>
@@ -8929,7 +8947,7 @@
       <c r="J500" s="3"/>
       <c r="K500" s="3"/>
     </row>
-    <row r="501" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
       <c r="D501" s="3"/>
@@ -8941,7 +8959,7 @@
       <c r="J501" s="3"/>
       <c r="K501" s="3"/>
     </row>
-    <row r="502" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
       <c r="D502" s="3"/>
@@ -8953,7 +8971,7 @@
       <c r="J502" s="3"/>
       <c r="K502" s="3"/>
     </row>
-    <row r="503" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
       <c r="D503" s="3"/>
@@ -8965,7 +8983,7 @@
       <c r="J503" s="3"/>
       <c r="K503" s="3"/>
     </row>
-    <row r="504" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
       <c r="D504" s="3"/>
@@ -8977,7 +8995,7 @@
       <c r="J504" s="3"/>
       <c r="K504" s="3"/>
     </row>
-    <row r="505" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
       <c r="D505" s="3"/>
@@ -8989,7 +9007,7 @@
       <c r="J505" s="3"/>
       <c r="K505" s="3"/>
     </row>
-    <row r="506" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
       <c r="D506" s="3"/>
@@ -9001,7 +9019,7 @@
       <c r="J506" s="3"/>
       <c r="K506" s="3"/>
     </row>
-    <row r="507" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
       <c r="D507" s="3"/>
@@ -9013,7 +9031,7 @@
       <c r="J507" s="3"/>
       <c r="K507" s="3"/>
     </row>
-    <row r="508" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
       <c r="D508" s="3"/>
@@ -9025,7 +9043,7 @@
       <c r="J508" s="3"/>
       <c r="K508" s="3"/>
     </row>
-    <row r="509" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
       <c r="D509" s="3"/>
@@ -9037,7 +9055,7 @@
       <c r="J509" s="3"/>
       <c r="K509" s="3"/>
     </row>
-    <row r="510" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
       <c r="D510" s="3"/>
@@ -9049,7 +9067,7 @@
       <c r="J510" s="3"/>
       <c r="K510" s="3"/>
     </row>
-    <row r="511" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
       <c r="D511" s="3"/>
@@ -9061,7 +9079,7 @@
       <c r="J511" s="3"/>
       <c r="K511" s="3"/>
     </row>
-    <row r="512" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
       <c r="D512" s="3"/>
@@ -9073,7 +9091,7 @@
       <c r="J512" s="3"/>
       <c r="K512" s="3"/>
     </row>
-    <row r="513" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
       <c r="D513" s="3"/>
@@ -9085,7 +9103,7 @@
       <c r="J513" s="3"/>
       <c r="K513" s="3"/>
     </row>
-    <row r="514" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
       <c r="D514" s="3"/>
@@ -9097,7 +9115,7 @@
       <c r="J514" s="3"/>
       <c r="K514" s="3"/>
     </row>
-    <row r="515" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
       <c r="D515" s="3"/>
@@ -9109,7 +9127,7 @@
       <c r="J515" s="3"/>
       <c r="K515" s="3"/>
     </row>
-    <row r="516" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
       <c r="D516" s="3"/>
@@ -9121,7 +9139,7 @@
       <c r="J516" s="3"/>
       <c r="K516" s="3"/>
     </row>
-    <row r="517" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
       <c r="D517" s="3"/>
@@ -9133,7 +9151,7 @@
       <c r="J517" s="3"/>
       <c r="K517" s="3"/>
     </row>
-    <row r="518" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
       <c r="D518" s="3"/>
@@ -9145,7 +9163,7 @@
       <c r="J518" s="3"/>
       <c r="K518" s="3"/>
     </row>
-    <row r="519" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
       <c r="D519" s="3"/>
@@ -9157,7 +9175,7 @@
       <c r="J519" s="3"/>
       <c r="K519" s="3"/>
     </row>
-    <row r="520" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
       <c r="D520" s="3"/>
@@ -9169,7 +9187,7 @@
       <c r="J520" s="3"/>
       <c r="K520" s="3"/>
     </row>
-    <row r="521" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
       <c r="D521" s="3"/>
@@ -9181,7 +9199,7 @@
       <c r="J521" s="3"/>
       <c r="K521" s="3"/>
     </row>
-    <row r="522" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
       <c r="D522" s="3"/>
@@ -9193,7 +9211,7 @@
       <c r="J522" s="3"/>
       <c r="K522" s="3"/>
     </row>
-    <row r="523" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
       <c r="D523" s="3"/>
@@ -9205,7 +9223,7 @@
       <c r="J523" s="3"/>
       <c r="K523" s="3"/>
     </row>
-    <row r="524" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
       <c r="D524" s="3"/>
@@ -9217,7 +9235,7 @@
       <c r="J524" s="3"/>
       <c r="K524" s="3"/>
     </row>
-    <row r="525" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
       <c r="D525" s="3"/>
@@ -9229,7 +9247,7 @@
       <c r="J525" s="3"/>
       <c r="K525" s="3"/>
     </row>
-    <row r="526" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
       <c r="D526" s="3"/>
@@ -9241,7 +9259,7 @@
       <c r="J526" s="3"/>
       <c r="K526" s="3"/>
     </row>
-    <row r="527" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
       <c r="D527" s="3"/>
@@ -9253,7 +9271,7 @@
       <c r="J527" s="3"/>
       <c r="K527" s="3"/>
     </row>
-    <row r="528" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
       <c r="D528" s="3"/>
@@ -9265,7 +9283,7 @@
       <c r="J528" s="3"/>
       <c r="K528" s="3"/>
     </row>
-    <row r="529" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
       <c r="D529" s="3"/>
@@ -9277,7 +9295,7 @@
       <c r="J529" s="3"/>
       <c r="K529" s="3"/>
     </row>
-    <row r="530" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
       <c r="D530" s="3"/>
@@ -9289,7 +9307,7 @@
       <c r="J530" s="3"/>
       <c r="K530" s="3"/>
     </row>
-    <row r="531" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
       <c r="D531" s="3"/>
@@ -9301,7 +9319,7 @@
       <c r="J531" s="3"/>
       <c r="K531" s="3"/>
     </row>
-    <row r="532" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
       <c r="D532" s="3"/>
@@ -9313,7 +9331,7 @@
       <c r="J532" s="3"/>
       <c r="K532" s="3"/>
     </row>
-    <row r="533" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
       <c r="D533" s="3"/>
@@ -9325,7 +9343,7 @@
       <c r="J533" s="3"/>
       <c r="K533" s="3"/>
     </row>
-    <row r="534" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
       <c r="D534" s="3"/>
@@ -9337,7 +9355,7 @@
       <c r="J534" s="3"/>
       <c r="K534" s="3"/>
     </row>
-    <row r="535" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
       <c r="D535" s="3"/>
@@ -9349,7 +9367,7 @@
       <c r="J535" s="3"/>
       <c r="K535" s="3"/>
     </row>
-    <row r="536" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
       <c r="D536" s="3"/>
@@ -9361,7 +9379,7 @@
       <c r="J536" s="3"/>
       <c r="K536" s="3"/>
     </row>
-    <row r="537" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
       <c r="D537" s="3"/>
@@ -9373,7 +9391,7 @@
       <c r="J537" s="3"/>
       <c r="K537" s="3"/>
     </row>
-    <row r="538" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
       <c r="D538" s="3"/>
@@ -9385,7 +9403,7 @@
       <c r="J538" s="3"/>
       <c r="K538" s="3"/>
     </row>
-    <row r="539" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
       <c r="D539" s="3"/>
@@ -9397,7 +9415,7 @@
       <c r="J539" s="3"/>
       <c r="K539" s="3"/>
     </row>
-    <row r="540" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
       <c r="D540" s="3"/>
@@ -9409,7 +9427,7 @@
       <c r="J540" s="3"/>
       <c r="K540" s="3"/>
     </row>
-    <row r="541" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
       <c r="D541" s="3"/>
@@ -9421,7 +9439,7 @@
       <c r="J541" s="3"/>
       <c r="K541" s="3"/>
     </row>
-    <row r="542" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
       <c r="D542" s="3"/>
@@ -9433,7 +9451,7 @@
       <c r="J542" s="3"/>
       <c r="K542" s="3"/>
     </row>
-    <row r="543" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
       <c r="D543" s="3"/>
@@ -9445,7 +9463,7 @@
       <c r="J543" s="3"/>
       <c r="K543" s="3"/>
     </row>
-    <row r="544" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
       <c r="D544" s="3"/>
@@ -9457,7 +9475,7 @@
       <c r="J544" s="3"/>
       <c r="K544" s="3"/>
     </row>
-    <row r="545" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
       <c r="D545" s="3"/>
@@ -9469,7 +9487,7 @@
       <c r="J545" s="3"/>
       <c r="K545" s="3"/>
     </row>
-    <row r="546" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
       <c r="D546" s="3"/>
@@ -9481,7 +9499,7 @@
       <c r="J546" s="3"/>
       <c r="K546" s="3"/>
     </row>
-    <row r="547" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
       <c r="D547" s="3"/>
@@ -9493,7 +9511,7 @@
       <c r="J547" s="3"/>
       <c r="K547" s="3"/>
     </row>
-    <row r="548" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
       <c r="D548" s="3"/>
@@ -9505,7 +9523,7 @@
       <c r="J548" s="3"/>
       <c r="K548" s="3"/>
     </row>
-    <row r="549" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
       <c r="D549" s="3"/>
@@ -9517,7 +9535,7 @@
       <c r="J549" s="3"/>
       <c r="K549" s="3"/>
     </row>
-    <row r="550" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
       <c r="D550" s="3"/>
@@ -9529,7 +9547,7 @@
       <c r="J550" s="3"/>
       <c r="K550" s="3"/>
     </row>
-    <row r="551" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
       <c r="D551" s="3"/>
@@ -9541,7 +9559,7 @@
       <c r="J551" s="3"/>
       <c r="K551" s="3"/>
     </row>
-    <row r="552" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
       <c r="D552" s="3"/>
@@ -9553,7 +9571,7 @@
       <c r="J552" s="3"/>
       <c r="K552" s="3"/>
     </row>
-    <row r="553" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
       <c r="D553" s="3"/>
@@ -9565,7 +9583,7 @@
       <c r="J553" s="3"/>
       <c r="K553" s="3"/>
     </row>
-    <row r="554" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
       <c r="D554" s="3"/>
@@ -9577,7 +9595,7 @@
       <c r="J554" s="3"/>
       <c r="K554" s="3"/>
     </row>
-    <row r="555" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
       <c r="D555" s="3"/>
@@ -9589,7 +9607,7 @@
       <c r="J555" s="3"/>
       <c r="K555" s="3"/>
     </row>
-    <row r="556" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
       <c r="D556" s="3"/>
@@ -9601,7 +9619,7 @@
       <c r="J556" s="3"/>
       <c r="K556" s="3"/>
     </row>
-    <row r="557" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
       <c r="D557" s="3"/>
@@ -9613,7 +9631,7 @@
       <c r="J557" s="3"/>
       <c r="K557" s="3"/>
     </row>
-    <row r="558" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
       <c r="D558" s="3"/>
@@ -9625,7 +9643,7 @@
       <c r="J558" s="3"/>
       <c r="K558" s="3"/>
     </row>
-    <row r="559" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
       <c r="D559" s="3"/>
@@ -9637,7 +9655,7 @@
       <c r="J559" s="3"/>
       <c r="K559" s="3"/>
     </row>
-    <row r="560" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
       <c r="D560" s="3"/>
@@ -9649,7 +9667,7 @@
       <c r="J560" s="3"/>
       <c r="K560" s="3"/>
     </row>
-    <row r="561" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
       <c r="D561" s="3"/>
@@ -9661,7 +9679,7 @@
       <c r="J561" s="3"/>
       <c r="K561" s="3"/>
     </row>
-    <row r="562" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
       <c r="D562" s="3"/>
@@ -9673,7 +9691,7 @@
       <c r="J562" s="3"/>
       <c r="K562" s="3"/>
     </row>
-    <row r="563" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
       <c r="D563" s="3"/>
@@ -9685,7 +9703,7 @@
       <c r="J563" s="3"/>
       <c r="K563" s="3"/>
     </row>
-    <row r="564" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
       <c r="D564" s="3"/>
@@ -9697,7 +9715,7 @@
       <c r="J564" s="3"/>
       <c r="K564" s="3"/>
     </row>
-    <row r="565" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
       <c r="D565" s="3"/>
@@ -9709,7 +9727,7 @@
       <c r="J565" s="3"/>
       <c r="K565" s="3"/>
     </row>
-    <row r="566" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
       <c r="D566" s="3"/>
@@ -9721,7 +9739,7 @@
       <c r="J566" s="3"/>
       <c r="K566" s="3"/>
     </row>
-    <row r="567" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
       <c r="D567" s="3"/>
@@ -9733,7 +9751,7 @@
       <c r="J567" s="3"/>
       <c r="K567" s="3"/>
     </row>
-    <row r="568" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
       <c r="D568" s="3"/>
@@ -9745,7 +9763,7 @@
       <c r="J568" s="3"/>
       <c r="K568" s="3"/>
     </row>
-    <row r="569" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
       <c r="D569" s="3"/>
@@ -9757,7 +9775,7 @@
       <c r="J569" s="3"/>
       <c r="K569" s="3"/>
     </row>
-    <row r="570" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
       <c r="D570" s="3"/>
@@ -9769,7 +9787,7 @@
       <c r="J570" s="3"/>
       <c r="K570" s="3"/>
     </row>
-    <row r="571" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
       <c r="D571" s="3"/>
@@ -9781,7 +9799,7 @@
       <c r="J571" s="3"/>
       <c r="K571" s="3"/>
     </row>
-    <row r="572" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
       <c r="D572" s="3"/>
@@ -9793,7 +9811,7 @@
       <c r="J572" s="3"/>
       <c r="K572" s="3"/>
     </row>
-    <row r="573" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
       <c r="D573" s="3"/>
@@ -9805,7 +9823,7 @@
       <c r="J573" s="3"/>
       <c r="K573" s="3"/>
     </row>
-    <row r="574" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
       <c r="D574" s="3"/>
@@ -9817,7 +9835,7 @@
       <c r="J574" s="3"/>
       <c r="K574" s="3"/>
     </row>
-    <row r="575" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
       <c r="D575" s="3"/>
@@ -9829,7 +9847,7 @@
       <c r="J575" s="3"/>
       <c r="K575" s="3"/>
     </row>
-    <row r="576" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
       <c r="D576" s="3"/>
@@ -9841,7 +9859,7 @@
       <c r="J576" s="3"/>
       <c r="K576" s="3"/>
     </row>
-    <row r="577" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
       <c r="D577" s="3"/>
@@ -9853,7 +9871,7 @@
       <c r="J577" s="3"/>
       <c r="K577" s="3"/>
     </row>
-    <row r="578" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
       <c r="D578" s="3"/>
@@ -9865,7 +9883,7 @@
       <c r="J578" s="3"/>
       <c r="K578" s="3"/>
     </row>
-    <row r="579" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
       <c r="D579" s="3"/>
@@ -9877,7 +9895,7 @@
       <c r="J579" s="3"/>
       <c r="K579" s="3"/>
     </row>
-    <row r="580" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
       <c r="D580" s="3"/>
@@ -9889,7 +9907,7 @@
       <c r="J580" s="3"/>
       <c r="K580" s="3"/>
     </row>
-    <row r="581" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
       <c r="D581" s="3"/>
@@ -9901,7 +9919,7 @@
       <c r="J581" s="3"/>
       <c r="K581" s="3"/>
     </row>
-    <row r="582" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
       <c r="D582" s="3"/>
@@ -9913,7 +9931,7 @@
       <c r="J582" s="3"/>
       <c r="K582" s="3"/>
     </row>
-    <row r="583" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
       <c r="D583" s="3"/>
@@ -9925,7 +9943,7 @@
       <c r="J583" s="3"/>
       <c r="K583" s="3"/>
     </row>
-    <row r="584" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
       <c r="D584" s="3"/>
@@ -9937,7 +9955,7 @@
       <c r="J584" s="3"/>
       <c r="K584" s="3"/>
     </row>
-    <row r="585" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
       <c r="D585" s="3"/>
@@ -9949,7 +9967,7 @@
       <c r="J585" s="3"/>
       <c r="K585" s="3"/>
     </row>
-    <row r="586" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
       <c r="D586" s="3"/>
@@ -9961,7 +9979,7 @@
       <c r="J586" s="3"/>
       <c r="K586" s="3"/>
     </row>
-    <row r="587" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
       <c r="D587" s="3"/>
@@ -9973,7 +9991,7 @@
       <c r="J587" s="3"/>
       <c r="K587" s="3"/>
     </row>
-    <row r="588" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
       <c r="D588" s="3"/>
@@ -9985,7 +10003,7 @@
       <c r="J588" s="3"/>
       <c r="K588" s="3"/>
     </row>
-    <row r="589" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
       <c r="D589" s="3"/>
@@ -9997,7 +10015,7 @@
       <c r="J589" s="3"/>
       <c r="K589" s="3"/>
     </row>
-    <row r="590" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
       <c r="D590" s="3"/>
@@ -10009,7 +10027,7 @@
       <c r="J590" s="3"/>
       <c r="K590" s="3"/>
     </row>
-    <row r="591" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
       <c r="D591" s="3"/>
@@ -10021,7 +10039,7 @@
       <c r="J591" s="3"/>
       <c r="K591" s="3"/>
     </row>
-    <row r="592" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
       <c r="D592" s="3"/>
@@ -10033,7 +10051,7 @@
       <c r="J592" s="3"/>
       <c r="K592" s="3"/>
     </row>
-    <row r="593" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
       <c r="D593" s="3"/>
@@ -10045,7 +10063,7 @@
       <c r="J593" s="3"/>
       <c r="K593" s="3"/>
     </row>
-    <row r="594" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
       <c r="D594" s="3"/>
@@ -10057,7 +10075,7 @@
       <c r="J594" s="3"/>
       <c r="K594" s="3"/>
     </row>
-    <row r="595" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
       <c r="D595" s="3"/>
@@ -10069,7 +10087,7 @@
       <c r="J595" s="3"/>
       <c r="K595" s="3"/>
     </row>
-    <row r="596" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
       <c r="D596" s="3"/>
@@ -10081,7 +10099,7 @@
       <c r="J596" s="3"/>
       <c r="K596" s="3"/>
     </row>
-    <row r="597" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
       <c r="D597" s="3"/>
@@ -10093,7 +10111,7 @@
       <c r="J597" s="3"/>
       <c r="K597" s="3"/>
     </row>
-    <row r="598" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
       <c r="D598" s="3"/>
@@ -10105,7 +10123,7 @@
       <c r="J598" s="3"/>
       <c r="K598" s="3"/>
     </row>
-    <row r="599" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
       <c r="D599" s="3"/>
@@ -10117,7 +10135,7 @@
       <c r="J599" s="3"/>
       <c r="K599" s="3"/>
     </row>
-    <row r="600" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
       <c r="D600" s="3"/>
@@ -10129,7 +10147,7 @@
       <c r="J600" s="3"/>
       <c r="K600" s="3"/>
     </row>
-    <row r="601" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
       <c r="D601" s="3"/>
@@ -10141,7 +10159,7 @@
       <c r="J601" s="3"/>
       <c r="K601" s="3"/>
     </row>
-    <row r="602" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
       <c r="D602" s="3"/>
@@ -10153,7 +10171,7 @@
       <c r="J602" s="3"/>
       <c r="K602" s="3"/>
     </row>
-    <row r="603" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
       <c r="D603" s="3"/>
@@ -10165,7 +10183,7 @@
       <c r="J603" s="3"/>
       <c r="K603" s="3"/>
     </row>
-    <row r="604" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
       <c r="D604" s="3"/>
@@ -10177,7 +10195,7 @@
       <c r="J604" s="3"/>
       <c r="K604" s="3"/>
     </row>
-    <row r="605" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
       <c r="D605" s="3"/>
@@ -10189,7 +10207,7 @@
       <c r="J605" s="3"/>
       <c r="K605" s="3"/>
     </row>
-    <row r="606" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
       <c r="D606" s="3"/>
@@ -10201,7 +10219,7 @@
       <c r="J606" s="3"/>
       <c r="K606" s="3"/>
     </row>
-    <row r="607" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
       <c r="D607" s="3"/>
@@ -10213,7 +10231,7 @@
       <c r="J607" s="3"/>
       <c r="K607" s="3"/>
     </row>
-    <row r="608" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
       <c r="D608" s="3"/>
@@ -10225,7 +10243,7 @@
       <c r="J608" s="3"/>
       <c r="K608" s="3"/>
     </row>
-    <row r="609" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
       <c r="D609" s="3"/>
@@ -10237,7 +10255,7 @@
       <c r="J609" s="3"/>
       <c r="K609" s="3"/>
     </row>
-    <row r="610" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
       <c r="D610" s="3"/>
@@ -10249,7 +10267,7 @@
       <c r="J610" s="3"/>
       <c r="K610" s="3"/>
     </row>
-    <row r="611" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
       <c r="D611" s="3"/>
@@ -10261,7 +10279,7 @@
       <c r="J611" s="3"/>
       <c r="K611" s="3"/>
     </row>
-    <row r="612" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
       <c r="D612" s="3"/>
@@ -10273,7 +10291,7 @@
       <c r="J612" s="3"/>
       <c r="K612" s="3"/>
     </row>
-    <row r="613" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
       <c r="D613" s="3"/>
@@ -10285,7 +10303,7 @@
       <c r="J613" s="3"/>
       <c r="K613" s="3"/>
     </row>
-    <row r="614" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
       <c r="D614" s="3"/>
@@ -10297,7 +10315,7 @@
       <c r="J614" s="3"/>
       <c r="K614" s="3"/>
     </row>
-    <row r="615" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
       <c r="D615" s="3"/>
@@ -10309,7 +10327,7 @@
       <c r="J615" s="3"/>
       <c r="K615" s="3"/>
     </row>
-    <row r="616" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
       <c r="D616" s="3"/>
@@ -10321,7 +10339,7 @@
       <c r="J616" s="3"/>
       <c r="K616" s="3"/>
     </row>
-    <row r="617" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
       <c r="D617" s="3"/>
@@ -10333,7 +10351,7 @@
       <c r="J617" s="3"/>
       <c r="K617" s="3"/>
     </row>
-    <row r="618" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
       <c r="D618" s="3"/>
@@ -10345,7 +10363,7 @@
       <c r="J618" s="3"/>
       <c r="K618" s="3"/>
     </row>
-    <row r="619" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
       <c r="D619" s="3"/>
@@ -10357,7 +10375,7 @@
       <c r="J619" s="3"/>
       <c r="K619" s="3"/>
     </row>
-    <row r="620" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
       <c r="D620" s="3"/>
@@ -10369,7 +10387,7 @@
       <c r="J620" s="3"/>
       <c r="K620" s="3"/>
     </row>
-    <row r="621" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
       <c r="D621" s="3"/>
@@ -10381,7 +10399,7 @@
       <c r="J621" s="3"/>
       <c r="K621" s="3"/>
     </row>
-    <row r="622" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
       <c r="D622" s="3"/>
@@ -10393,7 +10411,7 @@
       <c r="J622" s="3"/>
       <c r="K622" s="3"/>
     </row>
-    <row r="623" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
       <c r="D623" s="3"/>
@@ -10405,7 +10423,7 @@
       <c r="J623" s="3"/>
       <c r="K623" s="3"/>
     </row>
-    <row r="624" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
       <c r="D624" s="3"/>
@@ -10417,7 +10435,7 @@
       <c r="J624" s="3"/>
       <c r="K624" s="3"/>
     </row>
-    <row r="625" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
       <c r="D625" s="3"/>
@@ -10429,7 +10447,7 @@
       <c r="J625" s="3"/>
       <c r="K625" s="3"/>
     </row>
-    <row r="626" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
       <c r="D626" s="3"/>
@@ -10441,7 +10459,7 @@
       <c r="J626" s="3"/>
       <c r="K626" s="3"/>
     </row>
-    <row r="627" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
       <c r="D627" s="3"/>
@@ -10453,7 +10471,7 @@
       <c r="J627" s="3"/>
       <c r="K627" s="3"/>
     </row>
-    <row r="628" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
       <c r="D628" s="3"/>
@@ -10465,7 +10483,7 @@
       <c r="J628" s="3"/>
       <c r="K628" s="3"/>
     </row>
-    <row r="629" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
       <c r="D629" s="3"/>
@@ -10477,7 +10495,7 @@
       <c r="J629" s="3"/>
       <c r="K629" s="3"/>
     </row>
-    <row r="630" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
       <c r="D630" s="3"/>
@@ -10489,7 +10507,7 @@
       <c r="J630" s="3"/>
       <c r="K630" s="3"/>
     </row>
-    <row r="631" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
       <c r="D631" s="3"/>
@@ -10501,7 +10519,7 @@
       <c r="J631" s="3"/>
       <c r="K631" s="3"/>
     </row>
-    <row r="632" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
       <c r="D632" s="3"/>
@@ -10513,7 +10531,7 @@
       <c r="J632" s="3"/>
       <c r="K632" s="3"/>
     </row>
-    <row r="633" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
       <c r="D633" s="3"/>
@@ -10525,7 +10543,7 @@
       <c r="J633" s="3"/>
       <c r="K633" s="3"/>
     </row>
-    <row r="634" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
       <c r="D634" s="3"/>
@@ -10537,7 +10555,7 @@
       <c r="J634" s="3"/>
       <c r="K634" s="3"/>
     </row>
-    <row r="635" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
       <c r="D635" s="3"/>
@@ -10549,7 +10567,7 @@
       <c r="J635" s="3"/>
       <c r="K635" s="3"/>
     </row>
-    <row r="636" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
       <c r="D636" s="3"/>
@@ -10561,7 +10579,7 @@
       <c r="J636" s="3"/>
       <c r="K636" s="3"/>
     </row>
-    <row r="637" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
       <c r="D637" s="3"/>
@@ -10573,7 +10591,7 @@
       <c r="J637" s="3"/>
       <c r="K637" s="3"/>
     </row>
-    <row r="638" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
       <c r="D638" s="3"/>
@@ -10585,7 +10603,7 @@
       <c r="J638" s="3"/>
       <c r="K638" s="3"/>
     </row>
-    <row r="639" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
       <c r="D639" s="3"/>
@@ -10597,7 +10615,7 @@
       <c r="J639" s="3"/>
       <c r="K639" s="3"/>
     </row>
-    <row r="640" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
       <c r="D640" s="3"/>
@@ -10609,7 +10627,7 @@
       <c r="J640" s="3"/>
       <c r="K640" s="3"/>
     </row>
-    <row r="641" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
       <c r="D641" s="3"/>
@@ -10621,7 +10639,7 @@
       <c r="J641" s="3"/>
       <c r="K641" s="3"/>
     </row>
-    <row r="642" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
       <c r="D642" s="3"/>
@@ -10633,7 +10651,7 @@
       <c r="J642" s="3"/>
       <c r="K642" s="3"/>
     </row>
-    <row r="643" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
       <c r="D643" s="3"/>
@@ -10645,7 +10663,7 @@
       <c r="J643" s="3"/>
       <c r="K643" s="3"/>
     </row>
-    <row r="644" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
       <c r="D644" s="3"/>
@@ -10657,7 +10675,7 @@
       <c r="J644" s="3"/>
       <c r="K644" s="3"/>
     </row>
-    <row r="645" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
       <c r="D645" s="3"/>
@@ -10669,7 +10687,7 @@
       <c r="J645" s="3"/>
       <c r="K645" s="3"/>
     </row>
-    <row r="646" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
       <c r="D646" s="3"/>
@@ -10681,7 +10699,7 @@
       <c r="J646" s="3"/>
       <c r="K646" s="3"/>
     </row>
-    <row r="647" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
       <c r="D647" s="3"/>
@@ -10693,7 +10711,7 @@
       <c r="J647" s="3"/>
       <c r="K647" s="3"/>
     </row>
-    <row r="648" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
       <c r="D648" s="3"/>
@@ -10705,7 +10723,7 @@
       <c r="J648" s="3"/>
       <c r="K648" s="3"/>
     </row>
-    <row r="649" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
       <c r="D649" s="3"/>
@@ -10717,7 +10735,7 @@
       <c r="J649" s="3"/>
       <c r="K649" s="3"/>
     </row>
-    <row r="650" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
       <c r="D650" s="3"/>
@@ -10729,7 +10747,7 @@
       <c r="J650" s="3"/>
       <c r="K650" s="3"/>
     </row>
-    <row r="651" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
       <c r="D651" s="3"/>
@@ -10741,7 +10759,7 @@
       <c r="J651" s="3"/>
       <c r="K651" s="3"/>
     </row>
-    <row r="652" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
       <c r="D652" s="3"/>
@@ -10753,7 +10771,7 @@
       <c r="J652" s="3"/>
       <c r="K652" s="3"/>
     </row>
-    <row r="653" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
       <c r="D653" s="3"/>
@@ -10765,7 +10783,7 @@
       <c r="J653" s="3"/>
       <c r="K653" s="3"/>
     </row>
-    <row r="654" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
       <c r="D654" s="3"/>
@@ -10777,7 +10795,7 @@
       <c r="J654" s="3"/>
       <c r="K654" s="3"/>
     </row>
-    <row r="655" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
       <c r="D655" s="3"/>
@@ -10789,7 +10807,7 @@
       <c r="J655" s="3"/>
       <c r="K655" s="3"/>
     </row>
-    <row r="656" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
       <c r="D656" s="3"/>
@@ -10801,7 +10819,7 @@
       <c r="J656" s="3"/>
       <c r="K656" s="3"/>
     </row>
-    <row r="657" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
       <c r="D657" s="3"/>
@@ -10813,7 +10831,7 @@
       <c r="J657" s="3"/>
       <c r="K657" s="3"/>
     </row>
-    <row r="658" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
       <c r="D658" s="3"/>
@@ -10825,7 +10843,7 @@
       <c r="J658" s="3"/>
       <c r="K658" s="3"/>
     </row>
-    <row r="659" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
       <c r="D659" s="3"/>
@@ -10837,7 +10855,7 @@
       <c r="J659" s="3"/>
       <c r="K659" s="3"/>
     </row>
-    <row r="660" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
       <c r="D660" s="3"/>
@@ -10849,7 +10867,7 @@
       <c r="J660" s="3"/>
       <c r="K660" s="3"/>
     </row>
-    <row r="661" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
       <c r="D661" s="3"/>
@@ -10861,7 +10879,7 @@
       <c r="J661" s="3"/>
       <c r="K661" s="3"/>
     </row>
-    <row r="662" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
       <c r="D662" s="3"/>
@@ -10873,7 +10891,7 @@
       <c r="J662" s="3"/>
       <c r="K662" s="3"/>
     </row>
-    <row r="663" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
       <c r="D663" s="3"/>
@@ -10885,7 +10903,7 @@
       <c r="J663" s="3"/>
       <c r="K663" s="3"/>
     </row>
-    <row r="664" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
       <c r="D664" s="3"/>
@@ -10897,7 +10915,7 @@
       <c r="J664" s="3"/>
       <c r="K664" s="3"/>
     </row>
-    <row r="665" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
       <c r="D665" s="3"/>
@@ -10909,7 +10927,7 @@
       <c r="J665" s="3"/>
       <c r="K665" s="3"/>
     </row>
-    <row r="666" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
       <c r="D666" s="3"/>
@@ -10921,7 +10939,7 @@
       <c r="J666" s="3"/>
       <c r="K666" s="3"/>
     </row>
-    <row r="667" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
       <c r="D667" s="3"/>
@@ -10933,7 +10951,7 @@
       <c r="J667" s="3"/>
       <c r="K667" s="3"/>
     </row>
-    <row r="668" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
       <c r="D668" s="3"/>
@@ -10945,7 +10963,7 @@
       <c r="J668" s="3"/>
       <c r="K668" s="3"/>
     </row>
-    <row r="669" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
       <c r="D669" s="3"/>
@@ -10957,7 +10975,7 @@
       <c r="J669" s="3"/>
       <c r="K669" s="3"/>
     </row>
-    <row r="670" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
       <c r="D670" s="3"/>
@@ -10969,7 +10987,7 @@
       <c r="J670" s="3"/>
       <c r="K670" s="3"/>
     </row>
-    <row r="671" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
       <c r="D671" s="3"/>
@@ -10981,7 +10999,7 @@
       <c r="J671" s="3"/>
       <c r="K671" s="3"/>
     </row>
-    <row r="672" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
       <c r="D672" s="3"/>
@@ -10993,7 +11011,7 @@
       <c r="J672" s="3"/>
       <c r="K672" s="3"/>
     </row>
-    <row r="673" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
       <c r="D673" s="3"/>
@@ -11005,7 +11023,7 @@
       <c r="J673" s="3"/>
       <c r="K673" s="3"/>
     </row>
-    <row r="674" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
       <c r="D674" s="3"/>
@@ -11017,7 +11035,7 @@
       <c r="J674" s="3"/>
       <c r="K674" s="3"/>
     </row>
-    <row r="675" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
       <c r="D675" s="3"/>
@@ -11029,7 +11047,7 @@
       <c r="J675" s="3"/>
       <c r="K675" s="3"/>
     </row>
-    <row r="676" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
       <c r="D676" s="3"/>
@@ -11041,7 +11059,7 @@
       <c r="J676" s="3"/>
       <c r="K676" s="3"/>
     </row>
-    <row r="677" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
       <c r="D677" s="3"/>
@@ -11053,7 +11071,7 @@
       <c r="J677" s="3"/>
       <c r="K677" s="3"/>
     </row>
-    <row r="678" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
       <c r="D678" s="3"/>
@@ -11065,7 +11083,7 @@
       <c r="J678" s="3"/>
       <c r="K678" s="3"/>
     </row>
-    <row r="679" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
       <c r="D679" s="3"/>
@@ -11077,7 +11095,7 @@
       <c r="J679" s="3"/>
       <c r="K679" s="3"/>
     </row>
-    <row r="680" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
       <c r="D680" s="3"/>
@@ -11089,7 +11107,7 @@
       <c r="J680" s="3"/>
       <c r="K680" s="3"/>
     </row>
-    <row r="681" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
       <c r="D681" s="3"/>
@@ -11101,7 +11119,7 @@
       <c r="J681" s="3"/>
       <c r="K681" s="3"/>
     </row>
-    <row r="682" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
       <c r="D682" s="3"/>
@@ -11113,7 +11131,7 @@
       <c r="J682" s="3"/>
       <c r="K682" s="3"/>
     </row>
-    <row r="683" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
       <c r="D683" s="3"/>
@@ -11125,7 +11143,7 @@
       <c r="J683" s="3"/>
       <c r="K683" s="3"/>
     </row>
-    <row r="684" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
       <c r="D684" s="3"/>
@@ -11137,7 +11155,7 @@
       <c r="J684" s="3"/>
       <c r="K684" s="3"/>
     </row>
-    <row r="685" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
       <c r="D685" s="3"/>
@@ -11149,7 +11167,7 @@
       <c r="J685" s="3"/>
       <c r="K685" s="3"/>
     </row>
-    <row r="686" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
       <c r="D686" s="3"/>
@@ -11161,7 +11179,7 @@
       <c r="J686" s="3"/>
       <c r="K686" s="3"/>
     </row>
-    <row r="687" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
       <c r="D687" s="3"/>
@@ -11173,7 +11191,7 @@
       <c r="J687" s="3"/>
       <c r="K687" s="3"/>
     </row>
-    <row r="688" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
       <c r="D688" s="3"/>
@@ -11185,7 +11203,7 @@
       <c r="J688" s="3"/>
       <c r="K688" s="3"/>
     </row>
-    <row r="689" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
       <c r="D689" s="3"/>
@@ -11197,7 +11215,7 @@
       <c r="J689" s="3"/>
       <c r="K689" s="3"/>
     </row>
-    <row r="690" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
       <c r="D690" s="3"/>
@@ -11209,7 +11227,7 @@
       <c r="J690" s="3"/>
       <c r="K690" s="3"/>
     </row>
-    <row r="691" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
       <c r="D691" s="3"/>
@@ -11221,7 +11239,7 @@
       <c r="J691" s="3"/>
       <c r="K691" s="3"/>
     </row>
-    <row r="692" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
       <c r="D692" s="3"/>
@@ -11233,7 +11251,7 @@
       <c r="J692" s="3"/>
       <c r="K692" s="3"/>
     </row>
-    <row r="693" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
       <c r="D693" s="3"/>
@@ -11245,7 +11263,7 @@
       <c r="J693" s="3"/>
       <c r="K693" s="3"/>
     </row>
-    <row r="694" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
       <c r="D694" s="3"/>
@@ -11257,7 +11275,7 @@
       <c r="J694" s="3"/>
       <c r="K694" s="3"/>
     </row>
-    <row r="695" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
       <c r="D695" s="3"/>
@@ -11269,7 +11287,7 @@
       <c r="J695" s="3"/>
       <c r="K695" s="3"/>
     </row>
-    <row r="696" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
       <c r="D696" s="3"/>
@@ -11281,7 +11299,7 @@
       <c r="J696" s="3"/>
       <c r="K696" s="3"/>
     </row>
-    <row r="697" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
       <c r="D697" s="3"/>
@@ -11293,7 +11311,7 @@
       <c r="J697" s="3"/>
       <c r="K697" s="3"/>
     </row>
-    <row r="698" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
       <c r="D698" s="3"/>
@@ -11305,7 +11323,7 @@
       <c r="J698" s="3"/>
       <c r="K698" s="3"/>
     </row>
-    <row r="699" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
       <c r="D699" s="3"/>
@@ -11317,7 +11335,7 @@
       <c r="J699" s="3"/>
       <c r="K699" s="3"/>
     </row>
-    <row r="700" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
       <c r="D700" s="3"/>
@@ -11329,7 +11347,7 @@
       <c r="J700" s="3"/>
       <c r="K700" s="3"/>
     </row>
-    <row r="701" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
       <c r="D701" s="3"/>
@@ -11341,7 +11359,7 @@
       <c r="J701" s="3"/>
       <c r="K701" s="3"/>
     </row>
-    <row r="702" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
       <c r="D702" s="3"/>
@@ -11353,7 +11371,7 @@
       <c r="J702" s="3"/>
       <c r="K702" s="3"/>
     </row>
-    <row r="703" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
       <c r="D703" s="3"/>
@@ -11365,7 +11383,7 @@
       <c r="J703" s="3"/>
       <c r="K703" s="3"/>
     </row>
-    <row r="704" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
       <c r="D704" s="3"/>
@@ -11377,7 +11395,7 @@
       <c r="J704" s="3"/>
       <c r="K704" s="3"/>
     </row>
-    <row r="705" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
       <c r="D705" s="3"/>
@@ -11389,7 +11407,7 @@
       <c r="J705" s="3"/>
       <c r="K705" s="3"/>
     </row>
-    <row r="706" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
       <c r="D706" s="3"/>
@@ -11401,7 +11419,7 @@
       <c r="J706" s="3"/>
       <c r="K706" s="3"/>
     </row>
-    <row r="707" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
       <c r="D707" s="3"/>
@@ -11413,7 +11431,7 @@
       <c r="J707" s="3"/>
       <c r="K707" s="3"/>
     </row>
-    <row r="708" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
       <c r="D708" s="3"/>
@@ -11425,7 +11443,7 @@
       <c r="J708" s="3"/>
       <c r="K708" s="3"/>
     </row>
-    <row r="709" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
       <c r="D709" s="3"/>
@@ -11437,7 +11455,7 @@
       <c r="J709" s="3"/>
       <c r="K709" s="3"/>
     </row>
-    <row r="710" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="710" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
       <c r="D710" s="3"/>
@@ -11449,7 +11467,7 @@
       <c r="J710" s="3"/>
       <c r="K710" s="3"/>
     </row>
-    <row r="711" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="711" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
       <c r="D711" s="3"/>
@@ -11461,7 +11479,7 @@
       <c r="J711" s="3"/>
       <c r="K711" s="3"/>
     </row>
-    <row r="712" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="712" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
       <c r="D712" s="3"/>
@@ -11473,7 +11491,7 @@
       <c r="J712" s="3"/>
       <c r="K712" s="3"/>
     </row>
-    <row r="713" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="713" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
       <c r="D713" s="3"/>
@@ -11485,7 +11503,7 @@
       <c r="J713" s="3"/>
       <c r="K713" s="3"/>
     </row>
-    <row r="714" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="714" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
       <c r="D714" s="3"/>
@@ -11497,7 +11515,7 @@
       <c r="J714" s="3"/>
       <c r="K714" s="3"/>
     </row>
-    <row r="715" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="715" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
       <c r="D715" s="3"/>
@@ -11509,7 +11527,7 @@
       <c r="J715" s="3"/>
       <c r="K715" s="3"/>
     </row>
-    <row r="716" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="716" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
       <c r="D716" s="3"/>
@@ -11521,7 +11539,7 @@
       <c r="J716" s="3"/>
       <c r="K716" s="3"/>
     </row>
-    <row r="717" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="717" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
       <c r="D717" s="3"/>
@@ -11533,7 +11551,7 @@
       <c r="J717" s="3"/>
       <c r="K717" s="3"/>
     </row>
-    <row r="718" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="718" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
       <c r="D718" s="3"/>
@@ -11545,7 +11563,7 @@
       <c r="J718" s="3"/>
       <c r="K718" s="3"/>
     </row>
-    <row r="719" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="719" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
       <c r="D719" s="3"/>
@@ -11557,7 +11575,7 @@
       <c r="J719" s="3"/>
       <c r="K719" s="3"/>
     </row>
-    <row r="720" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="720" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
       <c r="D720" s="3"/>
@@ -11569,7 +11587,7 @@
       <c r="J720" s="3"/>
       <c r="K720" s="3"/>
     </row>
-    <row r="721" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="721" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
       <c r="D721" s="3"/>
@@ -11581,7 +11599,7 @@
       <c r="J721" s="3"/>
       <c r="K721" s="3"/>
     </row>
-    <row r="722" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="722" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
       <c r="D722" s="3"/>
@@ -11593,7 +11611,7 @@
       <c r="J722" s="3"/>
       <c r="K722" s="3"/>
     </row>
-    <row r="723" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="723" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
       <c r="D723" s="3"/>
@@ -11605,7 +11623,7 @@
       <c r="J723" s="3"/>
       <c r="K723" s="3"/>
     </row>
-    <row r="724" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="724" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
       <c r="D724" s="3"/>
@@ -11617,7 +11635,7 @@
       <c r="J724" s="3"/>
       <c r="K724" s="3"/>
     </row>
-    <row r="725" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="725" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
       <c r="D725" s="3"/>
@@ -11629,7 +11647,7 @@
       <c r="J725" s="3"/>
       <c r="K725" s="3"/>
     </row>
-    <row r="726" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="726" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
       <c r="D726" s="3"/>
@@ -11641,7 +11659,7 @@
       <c r="J726" s="3"/>
       <c r="K726" s="3"/>
     </row>
-    <row r="727" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="727" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
       <c r="D727" s="3"/>
@@ -11653,7 +11671,7 @@
       <c r="J727" s="3"/>
       <c r="K727" s="3"/>
     </row>
-    <row r="728" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="728" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
       <c r="D728" s="3"/>
@@ -11665,7 +11683,7 @@
       <c r="J728" s="3"/>
       <c r="K728" s="3"/>
     </row>
-    <row r="729" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="729" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
       <c r="D729" s="3"/>
@@ -11677,7 +11695,7 @@
       <c r="J729" s="3"/>
       <c r="K729" s="3"/>
     </row>
-    <row r="730" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="730" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
       <c r="D730" s="3"/>
@@ -11689,7 +11707,7 @@
       <c r="J730" s="3"/>
       <c r="K730" s="3"/>
     </row>
-    <row r="731" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="731" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
       <c r="D731" s="3"/>
@@ -11701,7 +11719,7 @@
       <c r="J731" s="3"/>
       <c r="K731" s="3"/>
     </row>
-    <row r="732" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="732" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
       <c r="D732" s="3"/>
@@ -11713,7 +11731,7 @@
       <c r="J732" s="3"/>
       <c r="K732" s="3"/>
     </row>
-    <row r="733" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="733" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
       <c r="D733" s="3"/>
@@ -11725,7 +11743,7 @@
       <c r="J733" s="3"/>
       <c r="K733" s="3"/>
     </row>
-    <row r="734" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="734" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
       <c r="D734" s="3"/>
@@ -11737,7 +11755,7 @@
       <c r="J734" s="3"/>
       <c r="K734" s="3"/>
     </row>
-    <row r="735" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="735" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
       <c r="D735" s="3"/>
@@ -11749,7 +11767,7 @@
       <c r="J735" s="3"/>
       <c r="K735" s="3"/>
     </row>
-    <row r="736" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="736" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
       <c r="D736" s="3"/>
@@ -11761,7 +11779,7 @@
       <c r="J736" s="3"/>
       <c r="K736" s="3"/>
     </row>
-    <row r="737" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="737" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
       <c r="D737" s="3"/>
@@ -11773,7 +11791,7 @@
       <c r="J737" s="3"/>
       <c r="K737" s="3"/>
     </row>
-    <row r="738" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="738" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
       <c r="D738" s="3"/>
@@ -11785,7 +11803,7 @@
       <c r="J738" s="3"/>
       <c r="K738" s="3"/>
     </row>
-    <row r="739" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="739" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
       <c r="D739" s="3"/>
@@ -11797,7 +11815,7 @@
       <c r="J739" s="3"/>
       <c r="K739" s="3"/>
     </row>
-    <row r="740" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="740" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
       <c r="D740" s="3"/>
@@ -11809,7 +11827,7 @@
       <c r="J740" s="3"/>
       <c r="K740" s="3"/>
     </row>
-    <row r="741" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="741" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
       <c r="D741" s="3"/>
@@ -11821,7 +11839,7 @@
       <c r="J741" s="3"/>
       <c r="K741" s="3"/>
     </row>
-    <row r="742" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="742" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
       <c r="D742" s="3"/>
@@ -11833,7 +11851,7 @@
       <c r="J742" s="3"/>
       <c r="K742" s="3"/>
     </row>
-    <row r="743" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="743" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
       <c r="D743" s="3"/>
@@ -11845,7 +11863,7 @@
       <c r="J743" s="3"/>
       <c r="K743" s="3"/>
     </row>
-    <row r="744" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="744" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
       <c r="D744" s="3"/>
@@ -11857,7 +11875,7 @@
       <c r="J744" s="3"/>
       <c r="K744" s="3"/>
     </row>
-    <row r="745" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="745" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
       <c r="D745" s="3"/>
@@ -11869,7 +11887,7 @@
       <c r="J745" s="3"/>
       <c r="K745" s="3"/>
     </row>
-    <row r="746" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="746" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
       <c r="D746" s="3"/>
@@ -11881,7 +11899,7 @@
       <c r="J746" s="3"/>
       <c r="K746" s="3"/>
     </row>
-    <row r="747" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="747" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
       <c r="D747" s="3"/>
@@ -11893,7 +11911,7 @@
       <c r="J747" s="3"/>
       <c r="K747" s="3"/>
     </row>
-    <row r="748" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
       <c r="D748" s="3"/>
@@ -11905,159 +11923,89 @@
       <c r="J748" s="3"/>
       <c r="K748" s="3"/>
     </row>
-    <row r="749" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B749" s="3"/>
-      <c r="C749" s="3"/>
-      <c r="D749" s="3"/>
-      <c r="E749" s="3"/>
-      <c r="F749" s="3"/>
-      <c r="G749" s="3"/>
-      <c r="H749" s="3"/>
-      <c r="I749" s="3"/>
-      <c r="J749" s="3"/>
-      <c r="K749" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="151">
-    <mergeCell ref="I79:I85"/>
-    <mergeCell ref="J79:J85"/>
-    <mergeCell ref="K79:K85"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="B79:B85"/>
-    <mergeCell ref="C79:C85"/>
-    <mergeCell ref="D79:D85"/>
-    <mergeCell ref="E79:E85"/>
-    <mergeCell ref="H79:H85"/>
-    <mergeCell ref="I72:I78"/>
-    <mergeCell ref="J72:J78"/>
-    <mergeCell ref="K72:K78"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="B72:B78"/>
-    <mergeCell ref="C72:C78"/>
-    <mergeCell ref="D72:D78"/>
-    <mergeCell ref="E72:E78"/>
-    <mergeCell ref="H72:H78"/>
-    <mergeCell ref="I58:I64"/>
-    <mergeCell ref="J58:J64"/>
-    <mergeCell ref="K58:K64"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="B58:B64"/>
-    <mergeCell ref="C58:C64"/>
-    <mergeCell ref="D58:D64"/>
-    <mergeCell ref="E58:E64"/>
-    <mergeCell ref="H58:H64"/>
-    <mergeCell ref="I51:I57"/>
-    <mergeCell ref="J51:J57"/>
-    <mergeCell ref="K51:K57"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="C51:C57"/>
-    <mergeCell ref="D51:D57"/>
-    <mergeCell ref="E51:E57"/>
-    <mergeCell ref="H51:H57"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="H25:H31"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="I114:I120"/>
-    <mergeCell ref="J114:J120"/>
-    <mergeCell ref="K114:K120"/>
-    <mergeCell ref="F118:F119"/>
-    <mergeCell ref="G118:G119"/>
-    <mergeCell ref="B114:B120"/>
-    <mergeCell ref="C114:C120"/>
-    <mergeCell ref="D114:D120"/>
-    <mergeCell ref="E114:E120"/>
-    <mergeCell ref="H114:H120"/>
-    <mergeCell ref="I107:I113"/>
-    <mergeCell ref="J107:J113"/>
-    <mergeCell ref="K107:K113"/>
-    <mergeCell ref="F111:F112"/>
-    <mergeCell ref="G111:G112"/>
-    <mergeCell ref="B107:B113"/>
-    <mergeCell ref="C107:C113"/>
-    <mergeCell ref="D107:D113"/>
-    <mergeCell ref="E107:E113"/>
-    <mergeCell ref="H107:H113"/>
-    <mergeCell ref="I100:I106"/>
-    <mergeCell ref="J100:J106"/>
-    <mergeCell ref="K100:K106"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="G104:G105"/>
-    <mergeCell ref="B100:B106"/>
-    <mergeCell ref="C100:C106"/>
-    <mergeCell ref="D100:D106"/>
-    <mergeCell ref="E100:E106"/>
-    <mergeCell ref="H100:H106"/>
-    <mergeCell ref="I93:I99"/>
-    <mergeCell ref="J93:J99"/>
-    <mergeCell ref="K93:K99"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="B93:B99"/>
-    <mergeCell ref="C93:C99"/>
-    <mergeCell ref="D93:D99"/>
-    <mergeCell ref="E93:E99"/>
-    <mergeCell ref="H93:H99"/>
-    <mergeCell ref="I86:I92"/>
-    <mergeCell ref="J86:J92"/>
-    <mergeCell ref="K86:K92"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="D86:D92"/>
-    <mergeCell ref="E86:E92"/>
-    <mergeCell ref="H86:H92"/>
-    <mergeCell ref="I65:I71"/>
-    <mergeCell ref="J65:J71"/>
-    <mergeCell ref="K65:K71"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="C65:C71"/>
-    <mergeCell ref="D65:D71"/>
-    <mergeCell ref="E65:E71"/>
-    <mergeCell ref="H65:H71"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="H32:H38"/>
-    <mergeCell ref="I32:I38"/>
-    <mergeCell ref="J32:J38"/>
-    <mergeCell ref="K32:K38"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="I18:I24"/>
-    <mergeCell ref="J18:J24"/>
-    <mergeCell ref="K18:K24"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C32:C38"/>
-    <mergeCell ref="D32:D38"/>
-    <mergeCell ref="E32:E38"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="J25:J31"/>
-    <mergeCell ref="K25:K31"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="C18:C24"/>
-    <mergeCell ref="D18:D24"/>
-    <mergeCell ref="E18:E24"/>
-    <mergeCell ref="H18:H24"/>
-    <mergeCell ref="G22:G23"/>
+  <mergeCells count="125">
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="J65:J70"/>
+    <mergeCell ref="K65:K70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="H71:H76"/>
+    <mergeCell ref="I71:I76"/>
+    <mergeCell ref="J71:J76"/>
+    <mergeCell ref="K71:K76"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="H41:H46"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="J41:J46"/>
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="H47:H52"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="J29:J34"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="H35:H40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="K35:K40"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="H2:K7"/>
-    <mergeCell ref="D11:D17"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="F15:F16"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B7:C7"/>
@@ -12065,11 +12013,43 @@
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H11:H17"/>
-    <mergeCell ref="I11:I17"/>
-    <mergeCell ref="J11:J17"/>
-    <mergeCell ref="K11:K17"/>
-    <mergeCell ref="E11:E17"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="H59:H64"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="H83:H88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="E89:E94"/>
+    <mergeCell ref="D89:D94"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="H89:H94"/>
+    <mergeCell ref="I89:I94"/>
+    <mergeCell ref="J89:J94"/>
+    <mergeCell ref="K89:K94"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="C53:C58"/>
+    <mergeCell ref="D53:D58"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="H53:H58"/>
+    <mergeCell ref="I53:I58"/>
+    <mergeCell ref="J53:J58"/>
+    <mergeCell ref="K53:K58"/>
+    <mergeCell ref="H77:H82"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="J77:J82"/>
+    <mergeCell ref="K77:K82"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Unit testing.xlsx
+++ b/Unit testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\RPL-Unit-Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0DA3F6-A222-4805-94B4-F20586FE5AD7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8F7282-B8DC-443A-A324-67912B730BD4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,12 +64,6 @@
     <t>Module Name:</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Rajkumar</t>
-  </si>
-  <si>
     <t>STATUS 
 (PASS/FAIL)</t>
   </si>
@@ -80,9 +74,6 @@
   <si>
     <t>EXPECTED 
 RESULT</t>
-  </si>
-  <si>
-    <t>Google Email</t>
   </si>
   <si>
     <t>www.SoftwareTestingMaterial.com</t>
@@ -1283,6 +1274,15 @@
   <si>
     <t>Verifikasi form update</t>
   </si>
+  <si>
+    <t>Ardhy, Digdo, Irvan, Razi</t>
+  </si>
+  <si>
+    <t>Penjualan</t>
+  </si>
+  <si>
+    <t>Warung</t>
+  </si>
 </sst>
 </file>
 
@@ -2035,6 +2035,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2047,6 +2059,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2090,21 +2105,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2543,8 +2543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K748"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59:H64"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2564,102 +2564,102 @@
   <sheetData>
     <row r="1" spans="2:11" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="31"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="35" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="36"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="35" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="36"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="35" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="39"/>
     </row>
     <row r="9" spans="2:11" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
@@ -2681,1399 +2681,1399 @@
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="17"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="21"/>
       <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="17" t="s">
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="D17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G22" s="7"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
     </row>
     <row r="23" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="17"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="21"/>
       <c r="F23" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
+        <v>42</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
     </row>
     <row r="26" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="25"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="2:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="2:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+    </row>
+    <row r="40" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+    </row>
+    <row r="41" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+    </row>
+    <row r="43" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+    </row>
+    <row r="44" spans="2:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="7"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+    </row>
+    <row r="47" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-    </row>
-    <row r="27" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="3" t="s">
+      <c r="E47" s="21"/>
+      <c r="F47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="9"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+    </row>
+    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+    </row>
+    <row r="49" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+    </row>
+    <row r="51" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+    </row>
+    <row r="53" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="9"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="3" t="s">
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+    </row>
+    <row r="55" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+    </row>
+    <row r="56" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+    </row>
+    <row r="57" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+    </row>
+    <row r="58" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="7"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+    </row>
+    <row r="59" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D59" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="21"/>
+      <c r="F59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="17"/>
-      <c r="C29" s="17" t="s">
+      <c r="G60" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+    </row>
+    <row r="62" spans="2:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+    </row>
+    <row r="65" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="21"/>
+      <c r="C65" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" s="21"/>
+      <c r="F65" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G65" s="9"/>
+      <c r="H65" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+    </row>
+    <row r="67" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+    </row>
+    <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="6" t="s">
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="23"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" s="16"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+    </row>
+    <row r="71" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="21"/>
+      <c r="C71" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="2:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+    </row>
+    <row r="73" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+    </row>
+    <row r="74" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-    </row>
-    <row r="30" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="G74" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="14" t="s">
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+    </row>
+    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="22"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76" s="18"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+    </row>
+    <row r="77" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="21"/>
+      <c r="C77" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-    </row>
-    <row r="33" spans="2:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="5" t="s">
+      <c r="D77" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="21"/>
+      <c r="F77" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="22"/>
+    </row>
+    <row r="79" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="21"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-    </row>
-    <row r="34" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="5" t="s">
+      <c r="G79" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="22"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="22"/>
+      <c r="F81" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="22"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+    </row>
+    <row r="83" spans="2:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="26"/>
+      <c r="C83" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="26"/>
+      <c r="F83" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I83" s="26"/>
+      <c r="J83" s="26"/>
+      <c r="K83" s="26"/>
+    </row>
+    <row r="84" spans="2:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="26"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-    </row>
-    <row r="35" spans="2:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="37"/>
-      <c r="C35" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="3" t="s">
+      <c r="G84" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B85" s="26"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="26"/>
+      <c r="K85" s="26"/>
+    </row>
+    <row r="86" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="26"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-    </row>
-    <row r="37" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="3" t="s">
+      <c r="G86" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="26"/>
+      <c r="K86" s="26"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B87" s="26"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="26"/>
+      <c r="K87" s="26"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B88" s="26"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="26"/>
+      <c r="K88" s="26"/>
+    </row>
+    <row r="89" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B89" s="21"/>
+      <c r="C89" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="21"/>
+      <c r="F89" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G89" s="9"/>
+      <c r="H89" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+      <c r="J90" s="22"/>
+      <c r="K90" s="22"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="2:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-    </row>
-    <row r="41" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
-      <c r="C41" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="3" t="s">
+      <c r="G91" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="22"/>
+      <c r="I91" s="22"/>
+      <c r="J91" s="22"/>
+      <c r="K91" s="22"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-    </row>
-    <row r="42" spans="2:11" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-    </row>
-    <row r="43" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-    </row>
-    <row r="44" spans="2:11" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="7"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="19"/>
-    </row>
-    <row r="47" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="9"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-    </row>
-    <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-    </row>
-    <row r="49" spans="2:11" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-    </row>
-    <row r="51" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G52" s="13"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-    </row>
-    <row r="53" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B53" s="17"/>
-      <c r="C53" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E53" s="17"/>
-      <c r="F53" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" s="9"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="17"/>
-    </row>
-    <row r="54" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-    </row>
-    <row r="55" spans="2:11" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-    </row>
-    <row r="56" spans="2:11" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-    </row>
-    <row r="57" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-    </row>
-    <row r="58" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-    </row>
-    <row r="59" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B59" s="17"/>
-      <c r="C59" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="17"/>
-      <c r="F59" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="17"/>
-    </row>
-    <row r="60" spans="2:11" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-    </row>
-    <row r="62" spans="2:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
-      <c r="K64" s="19"/>
-    </row>
-    <row r="65" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="17"/>
-      <c r="F65" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-    </row>
-    <row r="66" spans="2:11" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="2:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-    </row>
-    <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G70" s="16"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-    </row>
-    <row r="71" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B71" s="17"/>
-      <c r="C71" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="17"/>
-      <c r="F71" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-    </row>
-    <row r="72" spans="2:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-    </row>
-    <row r="73" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-    </row>
-    <row r="74" spans="2:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-    </row>
-    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G76" s="38"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-    </row>
-    <row r="77" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="17"/>
-      <c r="C77" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E77" s="17"/>
-      <c r="F77" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
-      <c r="K77" s="17"/>
-    </row>
-    <row r="78" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-    </row>
-    <row r="79" spans="2:11" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G79" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G81" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="19"/>
-    </row>
-    <row r="83" spans="2:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="37"/>
-      <c r="C83" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="37" t="s">
+      <c r="G92" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="22"/>
+      <c r="K92" s="22"/>
+    </row>
+    <row r="93" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E83" s="37"/>
-      <c r="F83" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="37"/>
-    </row>
-    <row r="84" spans="2:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="37"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="37"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B85" s="37"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-    </row>
-    <row r="86" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="37"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G86" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B87" s="37"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B88" s="37"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-    </row>
-    <row r="89" spans="2:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B89" s="17"/>
-      <c r="C89" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E89" s="17"/>
-      <c r="F89" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-    </row>
-    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-    </row>
-    <row r="91" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-    </row>
-    <row r="92" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-    </row>
-    <row r="93" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="G93" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
+      <c r="H93" s="22"/>
+      <c r="I93" s="22"/>
+      <c r="J93" s="22"/>
+      <c r="K93" s="22"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="18"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
       <c r="F94" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G94" s="40"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
+        <v>56</v>
+      </c>
+      <c r="G94" s="20"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="22"/>
+      <c r="K94" s="22"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
@@ -4135,7 +4135,7 @@
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -11925,111 +11925,6 @@
     </row>
   </sheetData>
   <mergeCells count="125">
-    <mergeCell ref="B65:B70"/>
-    <mergeCell ref="C65:C70"/>
-    <mergeCell ref="D65:D70"/>
-    <mergeCell ref="E65:E70"/>
-    <mergeCell ref="H65:H70"/>
-    <mergeCell ref="I65:I70"/>
-    <mergeCell ref="J65:J70"/>
-    <mergeCell ref="K65:K70"/>
-    <mergeCell ref="B71:B76"/>
-    <mergeCell ref="C71:C76"/>
-    <mergeCell ref="D71:D76"/>
-    <mergeCell ref="E71:E76"/>
-    <mergeCell ref="H71:H76"/>
-    <mergeCell ref="I71:I76"/>
-    <mergeCell ref="J71:J76"/>
-    <mergeCell ref="K71:K76"/>
-    <mergeCell ref="B77:B82"/>
-    <mergeCell ref="C77:C82"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="C41:C46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="E41:E46"/>
-    <mergeCell ref="H41:H46"/>
-    <mergeCell ref="I41:I46"/>
-    <mergeCell ref="J41:J46"/>
-    <mergeCell ref="K41:K46"/>
-    <mergeCell ref="B47:B52"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="D47:D52"/>
-    <mergeCell ref="E47:E52"/>
-    <mergeCell ref="H47:H52"/>
-    <mergeCell ref="I47:I52"/>
-    <mergeCell ref="J47:J52"/>
-    <mergeCell ref="K47:K52"/>
-    <mergeCell ref="H29:H34"/>
-    <mergeCell ref="I29:I34"/>
-    <mergeCell ref="J29:J34"/>
-    <mergeCell ref="K29:K34"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="D35:D40"/>
-    <mergeCell ref="E35:E40"/>
-    <mergeCell ref="H35:H40"/>
-    <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J35:J40"/>
-    <mergeCell ref="K35:K40"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="H23:H28"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="C29:C34"/>
-    <mergeCell ref="D29:D34"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="H17:H22"/>
-    <mergeCell ref="I17:I22"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="B11:B16"/>
-    <mergeCell ref="C11:C16"/>
-    <mergeCell ref="D11:D16"/>
-    <mergeCell ref="E11:E16"/>
-    <mergeCell ref="H11:H16"/>
-    <mergeCell ref="I11:I16"/>
-    <mergeCell ref="J11:J16"/>
-    <mergeCell ref="K11:K16"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K7"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="E29:E34"/>
-    <mergeCell ref="B59:B64"/>
-    <mergeCell ref="C59:C64"/>
-    <mergeCell ref="D59:D64"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="H59:H64"/>
-    <mergeCell ref="I59:I64"/>
-    <mergeCell ref="J59:J64"/>
-    <mergeCell ref="K59:K64"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="C83:C88"/>
-    <mergeCell ref="D83:D88"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="H83:H88"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="J83:J88"/>
-    <mergeCell ref="K83:K88"/>
     <mergeCell ref="E89:E94"/>
     <mergeCell ref="D89:D94"/>
     <mergeCell ref="C89:C94"/>
@@ -12050,6 +11945,111 @@
     <mergeCell ref="I77:I82"/>
     <mergeCell ref="J77:J82"/>
     <mergeCell ref="K77:K82"/>
+    <mergeCell ref="I59:I64"/>
+    <mergeCell ref="J59:J64"/>
+    <mergeCell ref="K59:K64"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="C83:C88"/>
+    <mergeCell ref="D83:D88"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="H83:H88"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="J83:J88"/>
+    <mergeCell ref="K83:K88"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K7"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="H17:H22"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="C11:C16"/>
+    <mergeCell ref="D11:D16"/>
+    <mergeCell ref="E11:E16"/>
+    <mergeCell ref="H11:H16"/>
+    <mergeCell ref="I11:I16"/>
+    <mergeCell ref="J11:J16"/>
+    <mergeCell ref="K11:K16"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="C29:C34"/>
+    <mergeCell ref="D29:D34"/>
+    <mergeCell ref="E29:E34"/>
+    <mergeCell ref="H29:H34"/>
+    <mergeCell ref="I29:I34"/>
+    <mergeCell ref="J29:J34"/>
+    <mergeCell ref="K29:K34"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="D35:D40"/>
+    <mergeCell ref="E35:E40"/>
+    <mergeCell ref="H35:H40"/>
+    <mergeCell ref="I35:I40"/>
+    <mergeCell ref="J35:J40"/>
+    <mergeCell ref="K35:K40"/>
+    <mergeCell ref="I41:I46"/>
+    <mergeCell ref="J41:J46"/>
+    <mergeCell ref="K41:K46"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="D47:D52"/>
+    <mergeCell ref="E47:E52"/>
+    <mergeCell ref="H47:H52"/>
+    <mergeCell ref="I47:I52"/>
+    <mergeCell ref="J47:J52"/>
+    <mergeCell ref="K47:K52"/>
+    <mergeCell ref="B77:B82"/>
+    <mergeCell ref="C77:C82"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="C41:C46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="E41:E46"/>
+    <mergeCell ref="H41:H46"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="C59:C64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="H59:H64"/>
+    <mergeCell ref="B65:B70"/>
+    <mergeCell ref="C65:C70"/>
+    <mergeCell ref="D65:D70"/>
+    <mergeCell ref="E65:E70"/>
+    <mergeCell ref="H65:H70"/>
+    <mergeCell ref="I65:I70"/>
+    <mergeCell ref="J65:J70"/>
+    <mergeCell ref="K65:K70"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="C71:C76"/>
+    <mergeCell ref="D71:D76"/>
+    <mergeCell ref="E71:E76"/>
+    <mergeCell ref="H71:H76"/>
+    <mergeCell ref="I71:I76"/>
+    <mergeCell ref="J71:J76"/>
+    <mergeCell ref="K71:K76"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
